--- a/trunk/Project Planning/to-do-list.xlsx
+++ b/trunk/Project Planning/to-do-list.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Restaurant Insight Project\Project Planning\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Restaurant Insight Project\trunk\Project Planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Help" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ToDoList!$A$4:$G$44</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ToDoList!$A$4:$G$51</definedName>
     <definedName name="pick">OFFSET(Lists!$C$1,1,0,MATCH(REPT("z",255),Lists!$C:$C),1)</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">ToDoList!$A:$G</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">ToDoList!$4:$4</definedName>
@@ -143,7 +143,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="83">
   <si>
     <t>To Do List</t>
   </si>
@@ -368,6 +368,30 @@
   </si>
   <si>
     <t>Order of Table</t>
+  </si>
+  <si>
+    <t>Reset password</t>
+  </si>
+  <si>
+    <t>Search user information</t>
+  </si>
+  <si>
+    <t>Assign role</t>
+  </si>
+  <si>
+    <t>Reset password for server side</t>
+  </si>
+  <si>
+    <t>Reset password for client side</t>
+  </si>
+  <si>
+    <t>Create role</t>
+  </si>
+  <si>
+    <t>Delete role</t>
+  </si>
+  <si>
+    <t>Delete user</t>
   </si>
 </sst>
 </file>
@@ -535,11 +559,13 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -650,7 +676,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -748,9 +774,6 @@
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -806,6 +829,31 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="18">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
@@ -1156,31 +1204,6 @@
         <bottom/>
       </border>
     </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -1267,27 +1290,27 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A4:G44" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
-  <autoFilter ref="A4:G44"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A4:G51" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
+  <autoFilter ref="A4:G51"/>
   <tableColumns count="7">
-    <tableColumn id="6" name="Project / Task" dataDxfId="12"/>
-    <tableColumn id="1" name="Status" dataDxfId="11"/>
-    <tableColumn id="2" name="Priority" dataDxfId="10"/>
-    <tableColumn id="3" name="PICK" dataDxfId="9"/>
-    <tableColumn id="4" name="Due Date" dataDxfId="8"/>
-    <tableColumn id="5" name="Owner" dataDxfId="7"/>
-    <tableColumn id="7" name="Notes" dataDxfId="6"/>
+    <tableColumn id="6" name="Project / Task" dataDxfId="15"/>
+    <tableColumn id="1" name="Status" dataDxfId="14"/>
+    <tableColumn id="2" name="Priority" dataDxfId="13"/>
+    <tableColumn id="3" name="PICK" dataDxfId="12"/>
+    <tableColumn id="4" name="Due Date" dataDxfId="11"/>
+    <tableColumn id="5" name="Owner" dataDxfId="10"/>
+    <tableColumn id="7" name="Notes" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:C23" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4" tableBorderDxfId="3" dataCellStyle="Normal">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:C23" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7" tableBorderDxfId="6" dataCellStyle="Normal">
   <tableColumns count="3">
-    <tableColumn id="1" name="Status" dataDxfId="2" dataCellStyle="Normal"/>
-    <tableColumn id="2" name="Priority" dataDxfId="1" dataCellStyle="Normal"/>
-    <tableColumn id="3" name="PICK" dataDxfId="0" dataCellStyle="Normal"/>
+    <tableColumn id="1" name="Status" dataDxfId="5" dataCellStyle="Normal"/>
+    <tableColumn id="2" name="Priority" dataDxfId="4" dataCellStyle="Normal"/>
+    <tableColumn id="3" name="PICK" dataDxfId="3" dataCellStyle="Normal"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1583,10 +1606,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I168"/>
+  <dimension ref="A1:I175"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1645,29 +1668,29 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="48" t="s">
+      <c r="A5" s="47" t="s">
         <v>66</v>
       </c>
-      <c r="B5" s="43"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="49"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="48"/>
     </row>
     <row r="6" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="48" t="s">
+      <c r="A6" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="B6" s="43"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="44"/>
-      <c r="G6" s="49"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="48"/>
     </row>
     <row r="7" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="50" t="s">
+      <c r="A7" s="49" t="s">
         <v>62</v>
       </c>
       <c r="B7" s="29" t="s">
@@ -1682,319 +1705,331 @@
       <c r="G7" s="31"/>
     </row>
     <row r="8" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="51" t="s">
+      <c r="A8" s="50" t="s">
         <v>63</v>
       </c>
-      <c r="B8" s="38"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="42"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="41"/>
     </row>
     <row r="9" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="51" t="s">
+      <c r="A9" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="B9" s="42"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="46"/>
+    </row>
+    <row r="10" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="50" t="s">
         <v>59</v>
       </c>
-      <c r="B9" s="38"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="42"/>
-    </row>
-    <row r="10" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="51" t="s">
+      <c r="B10" s="29"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="41"/>
+    </row>
+    <row r="11" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="50" t="s">
         <v>60</v>
       </c>
-      <c r="B10" s="38" t="s">
+      <c r="B11" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="39"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="39"/>
-      <c r="G10" s="42"/>
-    </row>
-    <row r="11" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="51" t="s">
-        <v>61</v>
-      </c>
-      <c r="B11" s="38" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="39"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="39"/>
-      <c r="G11" s="42"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="41"/>
     </row>
     <row r="12" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="50" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B12" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="30" t="s">
+      <c r="C12" s="38"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="41"/>
+    </row>
+    <row r="13" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="49" t="s">
+        <v>65</v>
+      </c>
+      <c r="B13" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="32"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="31"/>
-    </row>
-    <row r="13" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="52" t="s">
-        <v>64</v>
-      </c>
-      <c r="B13" s="43"/>
-      <c r="C13" s="44"/>
-      <c r="D13" s="45"/>
-      <c r="E13" s="46"/>
-      <c r="F13" s="44"/>
-      <c r="G13" s="47"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="31"/>
     </row>
     <row r="14" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="51" t="s">
-        <v>63</v>
-      </c>
-      <c r="B14" s="43"/>
-      <c r="C14" s="44"/>
-      <c r="D14" s="45"/>
-      <c r="E14" s="46"/>
-      <c r="F14" s="44"/>
-      <c r="G14" s="47"/>
+        <v>64</v>
+      </c>
+      <c r="B14" s="29"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="46"/>
     </row>
     <row r="15" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="51" t="s">
+      <c r="A15" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="B15" s="29"/>
+      <c r="C15" s="43"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="46"/>
+    </row>
+    <row r="16" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="52" t="s">
+        <v>77</v>
+      </c>
+      <c r="B16" s="42"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="46"/>
+    </row>
+    <row r="17" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A17" s="52" t="s">
+        <v>78</v>
+      </c>
+      <c r="B17" s="42"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="46"/>
+    </row>
+    <row r="18" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A18" s="52" t="s">
+        <v>79</v>
+      </c>
+      <c r="B18" s="42"/>
+      <c r="C18" s="43"/>
+      <c r="D18" s="44"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="46"/>
+    </row>
+    <row r="19" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A19" s="52" t="s">
+        <v>81</v>
+      </c>
+      <c r="B19" s="42"/>
+      <c r="C19" s="43"/>
+      <c r="D19" s="44"/>
+      <c r="E19" s="45"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="46"/>
+    </row>
+    <row r="20" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A20" s="52" t="s">
+        <v>82</v>
+      </c>
+      <c r="B20" s="42"/>
+      <c r="C20" s="43"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="43"/>
+      <c r="G20" s="46"/>
+    </row>
+    <row r="21" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="50" t="s">
         <v>59</v>
       </c>
-      <c r="B15" s="43"/>
-      <c r="C15" s="44"/>
-      <c r="D15" s="45"/>
-      <c r="E15" s="46"/>
-      <c r="F15" s="44"/>
-      <c r="G15" s="47"/>
-    </row>
-    <row r="16" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="51" t="s">
+      <c r="B21" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="43"/>
+      <c r="D21" s="44"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="43"/>
+      <c r="G21" s="46"/>
+    </row>
+    <row r="22" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="52" t="s">
+        <v>80</v>
+      </c>
+      <c r="B22" s="42"/>
+      <c r="C22" s="43"/>
+      <c r="D22" s="44"/>
+      <c r="E22" s="45"/>
+      <c r="F22" s="43"/>
+      <c r="G22" s="46"/>
+    </row>
+    <row r="23" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="50" t="s">
         <v>60</v>
       </c>
-      <c r="B16" s="43" t="s">
+      <c r="B23" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="44"/>
-      <c r="D16" s="45"/>
-      <c r="E16" s="46"/>
-      <c r="F16" s="44"/>
-      <c r="G16" s="47"/>
-    </row>
-    <row r="17" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="51" t="s">
+      <c r="C23" s="43"/>
+      <c r="D23" s="44"/>
+      <c r="E23" s="45"/>
+      <c r="F23" s="43"/>
+      <c r="G23" s="46"/>
+    </row>
+    <row r="24" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="50" t="s">
         <v>61</v>
       </c>
-      <c r="B17" s="43" t="s">
+      <c r="B24" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="44"/>
-      <c r="D17" s="45"/>
-      <c r="E17" s="46"/>
-      <c r="F17" s="44"/>
-      <c r="G17" s="47"/>
-    </row>
-    <row r="18" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="52" t="s">
+      <c r="C24" s="43"/>
+      <c r="D24" s="44"/>
+      <c r="E24" s="45"/>
+      <c r="F24" s="43"/>
+      <c r="G24" s="46"/>
+    </row>
+    <row r="25" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="51" t="s">
         <v>69</v>
       </c>
-      <c r="B18" s="43"/>
-      <c r="C18" s="44"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="46"/>
-      <c r="F18" s="44"/>
-      <c r="G18" s="47"/>
-    </row>
-    <row r="19" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="48" t="s">
+      <c r="B25" s="29"/>
+      <c r="C25" s="43"/>
+      <c r="D25" s="44"/>
+      <c r="E25" s="45"/>
+      <c r="F25" s="43"/>
+      <c r="G25" s="46"/>
+    </row>
+    <row r="26" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="47" t="s">
         <v>70</v>
       </c>
-      <c r="B19" s="43"/>
-      <c r="C19" s="44"/>
-      <c r="D19" s="45"/>
-      <c r="E19" s="46"/>
-      <c r="F19" s="44"/>
-      <c r="G19" s="47"/>
-    </row>
-    <row r="20" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="52" t="s">
+      <c r="B26" s="29"/>
+      <c r="C26" s="43"/>
+      <c r="D26" s="44"/>
+      <c r="E26" s="45"/>
+      <c r="F26" s="43"/>
+      <c r="G26" s="46"/>
+    </row>
+    <row r="27" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="51" t="s">
         <v>62</v>
       </c>
-      <c r="B20" s="43"/>
-      <c r="C20" s="44"/>
-      <c r="D20" s="45"/>
-      <c r="E20" s="46"/>
-      <c r="F20" s="44"/>
-      <c r="G20" s="47"/>
-    </row>
-    <row r="21" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="53" t="s">
+      <c r="B27" s="29"/>
+      <c r="C27" s="43"/>
+      <c r="D27" s="44"/>
+      <c r="E27" s="45"/>
+      <c r="F27" s="43"/>
+      <c r="G27" s="46"/>
+    </row>
+    <row r="28" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="52" t="s">
         <v>71</v>
       </c>
-      <c r="B21" s="43"/>
-      <c r="C21" s="44"/>
-      <c r="D21" s="45"/>
-      <c r="E21" s="46"/>
-      <c r="F21" s="44"/>
-      <c r="G21" s="47"/>
-    </row>
-    <row r="22" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="53" t="s">
+      <c r="B28" s="29"/>
+      <c r="C28" s="43"/>
+      <c r="D28" s="44"/>
+      <c r="E28" s="45"/>
+      <c r="F28" s="43"/>
+      <c r="G28" s="46"/>
+    </row>
+    <row r="29" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="52" t="s">
         <v>72</v>
       </c>
-      <c r="B22" s="43"/>
-      <c r="C22" s="44"/>
-      <c r="D22" s="45"/>
-      <c r="E22" s="46"/>
-      <c r="F22" s="44"/>
-      <c r="G22" s="47"/>
-    </row>
-    <row r="23" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="53" t="s">
+      <c r="B29" s="29"/>
+      <c r="C29" s="43"/>
+      <c r="D29" s="44"/>
+      <c r="E29" s="45"/>
+      <c r="F29" s="43"/>
+      <c r="G29" s="46"/>
+    </row>
+    <row r="30" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="52" t="s">
         <v>73</v>
       </c>
-      <c r="B23" s="43"/>
-      <c r="C23" s="44"/>
-      <c r="D23" s="45"/>
-      <c r="E23" s="46"/>
-      <c r="F23" s="44"/>
-      <c r="G23" s="47"/>
-    </row>
-    <row r="24" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="53" t="s">
+      <c r="B30" s="29"/>
+      <c r="C30" s="43"/>
+      <c r="D30" s="44"/>
+      <c r="E30" s="45"/>
+      <c r="F30" s="43"/>
+      <c r="G30" s="46"/>
+    </row>
+    <row r="31" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="52" t="s">
         <v>74</v>
       </c>
-      <c r="B24" s="43"/>
-      <c r="C24" s="44"/>
-      <c r="D24" s="45"/>
-      <c r="E24" s="46"/>
-      <c r="F24" s="44"/>
-      <c r="G24" s="47"/>
-    </row>
-    <row r="25" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="52" t="s">
+      <c r="B31" s="29"/>
+      <c r="C31" s="43"/>
+      <c r="D31" s="44"/>
+      <c r="E31" s="45"/>
+      <c r="F31" s="43"/>
+      <c r="G31" s="46"/>
+    </row>
+    <row r="32" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="51" t="s">
         <v>65</v>
       </c>
-      <c r="B25" s="43"/>
-      <c r="C25" s="44"/>
-      <c r="D25" s="45"/>
-      <c r="E25" s="46"/>
-      <c r="F25" s="44"/>
-      <c r="G25" s="47"/>
-    </row>
-    <row r="26" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="52" t="s">
+      <c r="B32" s="29"/>
+      <c r="C32" s="43"/>
+      <c r="D32" s="44"/>
+      <c r="E32" s="45"/>
+      <c r="F32" s="43"/>
+      <c r="G32" s="46"/>
+    </row>
+    <row r="33" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="51" t="s">
         <v>64</v>
       </c>
-      <c r="B26" s="43"/>
-      <c r="C26" s="44"/>
-      <c r="D26" s="45"/>
-      <c r="E26" s="46"/>
-      <c r="F26" s="44"/>
-      <c r="G26" s="47"/>
-    </row>
-    <row r="27" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A27" s="53" t="s">
+      <c r="B33" s="29"/>
+      <c r="C33" s="43"/>
+      <c r="D33" s="44"/>
+      <c r="E33" s="45"/>
+      <c r="F33" s="43"/>
+      <c r="G33" s="46"/>
+    </row>
+    <row r="34" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A34" s="52" t="s">
         <v>71</v>
       </c>
-      <c r="B27" s="43"/>
-      <c r="C27" s="44"/>
-      <c r="D27" s="45"/>
-      <c r="E27" s="46"/>
-      <c r="F27" s="44"/>
-      <c r="G27" s="47"/>
-    </row>
-    <row r="28" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A28" s="53" t="s">
+      <c r="B34" s="29"/>
+      <c r="C34" s="43"/>
+      <c r="D34" s="44"/>
+      <c r="E34" s="45"/>
+      <c r="F34" s="43"/>
+      <c r="G34" s="46"/>
+    </row>
+    <row r="35" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A35" s="52" t="s">
         <v>72</v>
       </c>
-      <c r="B28" s="43"/>
-      <c r="C28" s="44"/>
-      <c r="D28" s="45"/>
-      <c r="E28" s="46"/>
-      <c r="F28" s="44"/>
-      <c r="G28" s="47"/>
-    </row>
-    <row r="29" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A29" s="53" t="s">
+      <c r="B35" s="29"/>
+      <c r="C35" s="43"/>
+      <c r="D35" s="44"/>
+      <c r="E35" s="45"/>
+      <c r="F35" s="43"/>
+      <c r="G35" s="46"/>
+    </row>
+    <row r="36" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A36" s="52" t="s">
         <v>73</v>
       </c>
-      <c r="B29" s="29"/>
-      <c r="C29" s="30"/>
-      <c r="D29" s="32"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="30"/>
-      <c r="G29" s="31"/>
-    </row>
-    <row r="30" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A30" s="53" t="s">
-        <v>74</v>
-      </c>
-      <c r="B30" s="29"/>
-      <c r="C30" s="30"/>
-      <c r="D30" s="32"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="30"/>
-      <c r="G30" s="31"/>
-    </row>
-    <row r="31" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A31" s="50" t="s">
-        <v>69</v>
-      </c>
-      <c r="B31" s="29"/>
-      <c r="C31" s="30"/>
-      <c r="D31" s="32"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="30"/>
-      <c r="G31" s="31"/>
-    </row>
-    <row r="32" spans="1:7" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="28"/>
-      <c r="B32" s="29"/>
-      <c r="C32" s="30"/>
-      <c r="D32" s="32"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="30"/>
-      <c r="G32" s="31"/>
-    </row>
-    <row r="33" spans="1:7" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="28"/>
-      <c r="B33" s="29"/>
-      <c r="C33" s="30"/>
-      <c r="D33" s="32"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="30"/>
-      <c r="G33" s="31"/>
-    </row>
-    <row r="34" spans="1:7" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="28"/>
-      <c r="B34" s="29"/>
-      <c r="C34" s="30"/>
-      <c r="D34" s="32"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="30"/>
-      <c r="G34" s="31"/>
-    </row>
-    <row r="35" spans="1:7" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="28"/>
-      <c r="B35" s="29"/>
-      <c r="C35" s="30"/>
-      <c r="D35" s="32"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="30"/>
-      <c r="G35" s="31"/>
-    </row>
-    <row r="36" spans="1:7" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="28"/>
       <c r="B36" s="29"/>
       <c r="C36" s="30"/>
       <c r="D36" s="32"/>
@@ -2002,8 +2037,10 @@
       <c r="F36" s="30"/>
       <c r="G36" s="31"/>
     </row>
-    <row r="37" spans="1:7" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="28"/>
+    <row r="37" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A37" s="52" t="s">
+        <v>74</v>
+      </c>
       <c r="B37" s="29"/>
       <c r="C37" s="30"/>
       <c r="D37" s="32"/>
@@ -2011,8 +2048,10 @@
       <c r="F37" s="30"/>
       <c r="G37" s="31"/>
     </row>
-    <row r="38" spans="1:7" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="28"/>
+    <row r="38" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A38" s="49" t="s">
+        <v>69</v>
+      </c>
       <c r="B38" s="29"/>
       <c r="C38" s="30"/>
       <c r="D38" s="32"/>
@@ -2074,26 +2113,82 @@
       <c r="F44" s="30"/>
       <c r="G44" s="31"/>
     </row>
-    <row r="45" spans="1:7" ht="26.1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="46" spans="1:7" ht="26.1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="47" spans="1:7" ht="26.1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="48" spans="1:7" ht="26.1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="49" ht="26.1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="50" ht="26.1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="51" ht="26.1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="52" ht="26.1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="53" ht="26.1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="54" ht="26.1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="55" ht="26.1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="56" ht="26.1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="57" ht="26.1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="58" ht="26.1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="59" ht="26.1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="60" ht="26.1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="61" ht="26.1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="62" ht="26.1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="63" ht="26.1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="64" ht="26.1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="45" spans="1:7" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="28"/>
+      <c r="B45" s="29"/>
+      <c r="C45" s="30"/>
+      <c r="D45" s="32"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="30"/>
+      <c r="G45" s="31"/>
+    </row>
+    <row r="46" spans="1:7" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="28"/>
+      <c r="B46" s="29"/>
+      <c r="C46" s="30"/>
+      <c r="D46" s="32"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="30"/>
+      <c r="G46" s="31"/>
+    </row>
+    <row r="47" spans="1:7" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="28"/>
+      <c r="B47" s="29"/>
+      <c r="C47" s="30"/>
+      <c r="D47" s="32"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="30"/>
+      <c r="G47" s="31"/>
+    </row>
+    <row r="48" spans="1:7" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="28"/>
+      <c r="B48" s="29"/>
+      <c r="C48" s="30"/>
+      <c r="D48" s="32"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="30"/>
+      <c r="G48" s="31"/>
+    </row>
+    <row r="49" spans="1:7" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="28"/>
+      <c r="B49" s="29"/>
+      <c r="C49" s="30"/>
+      <c r="D49" s="32"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="30"/>
+      <c r="G49" s="31"/>
+    </row>
+    <row r="50" spans="1:7" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="28"/>
+      <c r="B50" s="29"/>
+      <c r="C50" s="30"/>
+      <c r="D50" s="32"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="30"/>
+      <c r="G50" s="31"/>
+    </row>
+    <row r="51" spans="1:7" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="28"/>
+      <c r="B51" s="29"/>
+      <c r="C51" s="30"/>
+      <c r="D51" s="32"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="30"/>
+      <c r="G51" s="31"/>
+    </row>
+    <row r="52" spans="1:7" ht="26.1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="53" spans="1:7" ht="26.1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="54" spans="1:7" ht="26.1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="55" spans="1:7" ht="26.1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="56" spans="1:7" ht="26.1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="57" spans="1:7" ht="26.1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="58" spans="1:7" ht="26.1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="59" spans="1:7" ht="26.1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="60" spans="1:7" ht="26.1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="61" spans="1:7" ht="26.1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="62" spans="1:7" ht="26.1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="63" spans="1:7" ht="26.1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="64" spans="1:7" ht="26.1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="65" ht="26.1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="66" ht="26.1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="67" ht="26.1" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2198,29 +2293,36 @@
     <row r="166" ht="26.1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="167" ht="26.1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="168" ht="26.1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="169" ht="26.1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="170" ht="26.1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="171" ht="26.1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="172" ht="26.1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="173" ht="26.1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="174" ht="26.1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="175" ht="26.1" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="C5:C44">
-    <cfRule type="cellIs" dxfId="17" priority="6" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="C5:C51">
+    <cfRule type="cellIs" dxfId="2" priority="6" stopIfTrue="1" operator="equal">
       <formula>"high"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="7" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="7" stopIfTrue="1" operator="equal">
       <formula>"low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E5:E44">
-    <cfRule type="cellIs" dxfId="15" priority="8" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="E5:E51">
+    <cfRule type="cellIs" dxfId="0" priority="8" stopIfTrue="1" operator="lessThan">
       <formula>TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5:B44">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5:B51">
       <formula1>status</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C44">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C51">
       <formula1>priority</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D44">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D51">
       <formula1>pick</formula1>
     </dataValidation>
   </dataValidations>
@@ -2257,7 +2359,7 @@
               <x14:cfIcon iconSet="3TrafficLights1" iconId="2"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>E4:E44</xm:sqref>
+          <xm:sqref>E4:E51</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -2301,11 +2403,11 @@
       <c r="C2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="54" t="s">
+      <c r="E2" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
     </row>
     <row r="3" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
@@ -2317,9 +2419,9 @@
       <c r="C3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
     </row>
     <row r="4" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
@@ -2331,9 +2433,9 @@
       <c r="C4" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
     </row>
     <row r="5" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
@@ -2345,9 +2447,9 @@
       <c r="C5" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="54"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="54"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="53"/>
     </row>
     <row r="6" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
@@ -2357,9 +2459,9 @@
       <c r="C6" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="54"/>
-      <c r="F6" s="54"/>
-      <c r="G6" s="54"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
     </row>
     <row r="7" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">

--- a/trunk/Project Planning/to-do-list.xlsx
+++ b/trunk/Project Planning/to-do-list.xlsx
@@ -17,7 +17,7 @@
     <sheet name="Help" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ToDoList!$A$4:$G$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ToDoList!$A$4:$G$65</definedName>
     <definedName name="pick">OFFSET(Lists!$C$1,1,0,MATCH(REPT("z",255),Lists!$C:$C),1)</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">ToDoList!$A:$G</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">ToDoList!$4:$4</definedName>
@@ -143,7 +143,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="96">
   <si>
     <t>To Do List</t>
   </si>
@@ -392,6 +392,45 @@
   </si>
   <si>
     <t>Delete user</t>
+  </si>
+  <si>
+    <t>Module: Common</t>
+  </si>
+  <si>
+    <t>Revise prototype to release final product</t>
+  </si>
+  <si>
+    <t>Master Data</t>
+  </si>
+  <si>
+    <t>Technical Item</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Table </t>
+  </si>
+  <si>
+    <t>Food category</t>
+  </si>
+  <si>
+    <t>Food</t>
+  </si>
+  <si>
+    <t>Session</t>
+  </si>
+  <si>
+    <t>Position name</t>
+  </si>
+  <si>
+    <t>Add datetime picker</t>
+  </si>
+  <si>
+    <t>Apply form to app</t>
+  </si>
+  <si>
+    <t>Misc</t>
+  </si>
+  <si>
+    <t>Define message box style</t>
   </si>
 </sst>
 </file>
@@ -676,7 +715,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -822,6 +861,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1290,8 +1332,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A4:G51" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
-  <autoFilter ref="A4:G51"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A4:G65" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
+  <autoFilter ref="A4:G65"/>
   <tableColumns count="7">
     <tableColumn id="6" name="Project / Task" dataDxfId="15"/>
     <tableColumn id="1" name="Status" dataDxfId="14"/>
@@ -1606,10 +1648,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I175"/>
+  <dimension ref="A1:I189"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1680,7 +1722,7 @@
     </row>
     <row r="6" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="47" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="B6" s="42"/>
       <c r="C6" s="43"/>
@@ -1689,190 +1731,198 @@
       <c r="F6" s="43"/>
       <c r="G6" s="48"/>
     </row>
-    <row r="7" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="49" t="s">
-        <v>62</v>
-      </c>
-      <c r="B7" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="32"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="31"/>
-    </row>
-    <row r="8" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="50" t="s">
-        <v>63</v>
-      </c>
-      <c r="B8" s="29"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="41"/>
-    </row>
-    <row r="9" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="52" t="s">
-        <v>75</v>
+    <row r="7" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="51" t="s">
+        <v>94</v>
+      </c>
+      <c r="B7" s="42"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="48"/>
+    </row>
+    <row r="8" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A8" s="54"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="48"/>
+    </row>
+    <row r="9" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A9" s="51" t="s">
+        <v>85</v>
       </c>
       <c r="B9" s="42"/>
       <c r="C9" s="43"/>
       <c r="D9" s="44"/>
       <c r="E9" s="45"/>
       <c r="F9" s="43"/>
-      <c r="G9" s="46"/>
-    </row>
-    <row r="10" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="50" t="s">
-        <v>59</v>
-      </c>
-      <c r="B10" s="29"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="39"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="41"/>
-    </row>
-    <row r="11" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="50" t="s">
-        <v>60</v>
+      <c r="G9" s="48"/>
+    </row>
+    <row r="10" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A10" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="B10" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="43"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="48"/>
+    </row>
+    <row r="11" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A11" s="52" t="s">
+        <v>88</v>
       </c>
       <c r="B11" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="38"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="41"/>
-    </row>
-    <row r="12" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="50" t="s">
-        <v>61</v>
+        <v>10</v>
+      </c>
+      <c r="C11" s="43"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="48"/>
+    </row>
+    <row r="12" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A12" s="52" t="s">
+        <v>89</v>
       </c>
       <c r="B12" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="38"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="40"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="41"/>
-    </row>
-    <row r="13" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="49" t="s">
-        <v>65</v>
+        <v>10</v>
+      </c>
+      <c r="C12" s="43"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="48"/>
+    </row>
+    <row r="13" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A13" s="52" t="s">
+        <v>90</v>
       </c>
       <c r="B13" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="32"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="31"/>
-    </row>
-    <row r="14" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="51" t="s">
-        <v>64</v>
-      </c>
-      <c r="B14" s="29"/>
+        <v>10</v>
+      </c>
+      <c r="C13" s="43"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="48"/>
+    </row>
+    <row r="14" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A14" s="52" t="s">
+        <v>91</v>
+      </c>
+      <c r="B14" s="29" t="s">
+        <v>10</v>
+      </c>
       <c r="C14" s="43"/>
       <c r="D14" s="44"/>
       <c r="E14" s="45"/>
       <c r="F14" s="43"/>
-      <c r="G14" s="46"/>
-    </row>
-    <row r="15" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="50" t="s">
-        <v>76</v>
+      <c r="G14" s="48"/>
+    </row>
+    <row r="15" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A15" s="51" t="s">
+        <v>86</v>
       </c>
       <c r="B15" s="29"/>
       <c r="C15" s="43"/>
       <c r="D15" s="44"/>
       <c r="E15" s="45"/>
       <c r="F15" s="43"/>
-      <c r="G15" s="46"/>
-    </row>
-    <row r="16" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G15" s="48"/>
+    </row>
+    <row r="16" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="52" t="s">
-        <v>77</v>
-      </c>
-      <c r="B16" s="42"/>
+        <v>92</v>
+      </c>
+      <c r="B16" s="29" t="s">
+        <v>10</v>
+      </c>
       <c r="C16" s="43"/>
       <c r="D16" s="44"/>
       <c r="E16" s="45"/>
       <c r="F16" s="43"/>
-      <c r="G16" s="46"/>
-    </row>
-    <row r="17" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="G16" s="48"/>
+    </row>
+    <row r="17" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="52" t="s">
-        <v>78</v>
-      </c>
-      <c r="B17" s="42"/>
+        <v>93</v>
+      </c>
+      <c r="B17" s="29" t="s">
+        <v>10</v>
+      </c>
       <c r="C17" s="43"/>
       <c r="D17" s="44"/>
       <c r="E17" s="45"/>
       <c r="F17" s="43"/>
-      <c r="G17" s="46"/>
-    </row>
-    <row r="18" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="G17" s="48"/>
+    </row>
+    <row r="18" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="52" t="s">
-        <v>79</v>
-      </c>
-      <c r="B18" s="42"/>
+        <v>95</v>
+      </c>
+      <c r="B18" s="29" t="s">
+        <v>10</v>
+      </c>
       <c r="C18" s="43"/>
       <c r="D18" s="44"/>
       <c r="E18" s="45"/>
       <c r="F18" s="43"/>
-      <c r="G18" s="46"/>
+      <c r="G18" s="48"/>
     </row>
     <row r="19" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A19" s="52" t="s">
-        <v>81</v>
+      <c r="A19" s="47" t="s">
+        <v>67</v>
       </c>
       <c r="B19" s="42"/>
       <c r="C19" s="43"/>
       <c r="D19" s="44"/>
       <c r="E19" s="45"/>
       <c r="F19" s="43"/>
-      <c r="G19" s="46"/>
-    </row>
-    <row r="20" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A20" s="52" t="s">
-        <v>82</v>
-      </c>
-      <c r="B20" s="42"/>
-      <c r="C20" s="43"/>
-      <c r="D20" s="44"/>
-      <c r="E20" s="45"/>
-      <c r="F20" s="43"/>
-      <c r="G20" s="46"/>
+      <c r="G19" s="48"/>
+    </row>
+    <row r="20" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="49" t="s">
+        <v>62</v>
+      </c>
+      <c r="B20" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="32"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="31"/>
     </row>
     <row r="21" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="50" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B21" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="43"/>
-      <c r="D21" s="44"/>
-      <c r="E21" s="45"/>
-      <c r="F21" s="43"/>
-      <c r="G21" s="46"/>
+      <c r="C21" s="38"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="41"/>
     </row>
     <row r="22" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="52" t="s">
-        <v>80</v>
-      </c>
-      <c r="B22" s="42"/>
+        <v>75</v>
+      </c>
+      <c r="B22" s="29" t="s">
+        <v>16</v>
+      </c>
       <c r="C22" s="43"/>
       <c r="D22" s="44"/>
       <c r="E22" s="45"/>
@@ -1881,55 +1931,61 @@
     </row>
     <row r="23" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="50" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B23" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="C23" s="43"/>
-      <c r="D23" s="44"/>
-      <c r="E23" s="45"/>
-      <c r="F23" s="43"/>
-      <c r="G23" s="46"/>
+      <c r="C23" s="38"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="38"/>
+      <c r="G23" s="41"/>
     </row>
     <row r="24" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="50" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B24" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="C24" s="43"/>
-      <c r="D24" s="44"/>
-      <c r="E24" s="45"/>
-      <c r="F24" s="43"/>
-      <c r="G24" s="46"/>
+      <c r="C24" s="38"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="40"/>
+      <c r="F24" s="38"/>
+      <c r="G24" s="41"/>
     </row>
     <row r="25" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="51" t="s">
-        <v>69</v>
-      </c>
-      <c r="B25" s="29"/>
-      <c r="C25" s="43"/>
-      <c r="D25" s="44"/>
-      <c r="E25" s="45"/>
-      <c r="F25" s="43"/>
-      <c r="G25" s="46"/>
+      <c r="A25" s="50" t="s">
+        <v>61</v>
+      </c>
+      <c r="B25" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" s="38"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="40"/>
+      <c r="F25" s="38"/>
+      <c r="G25" s="41"/>
     </row>
     <row r="26" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="47" t="s">
-        <v>70</v>
-      </c>
-      <c r="B26" s="29"/>
-      <c r="C26" s="43"/>
-      <c r="D26" s="44"/>
-      <c r="E26" s="45"/>
-      <c r="F26" s="43"/>
-      <c r="G26" s="46"/>
+      <c r="A26" s="49" t="s">
+        <v>65</v>
+      </c>
+      <c r="B26" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="32"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="31"/>
     </row>
     <row r="27" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="51" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B27" s="29"/>
       <c r="C27" s="43"/>
@@ -1939,8 +1995,8 @@
       <c r="G27" s="46"/>
     </row>
     <row r="28" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="52" t="s">
-        <v>71</v>
+      <c r="A28" s="50" t="s">
+        <v>76</v>
       </c>
       <c r="B28" s="29"/>
       <c r="C28" s="43"/>
@@ -1951,215 +2007,261 @@
     </row>
     <row r="29" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="52" t="s">
-        <v>72</v>
-      </c>
-      <c r="B29" s="29"/>
+        <v>77</v>
+      </c>
+      <c r="B29" s="29" t="s">
+        <v>16</v>
+      </c>
       <c r="C29" s="43"/>
       <c r="D29" s="44"/>
       <c r="E29" s="45"/>
       <c r="F29" s="43"/>
       <c r="G29" s="46"/>
     </row>
-    <row r="30" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A30" s="52" t="s">
-        <v>73</v>
-      </c>
-      <c r="B30" s="29"/>
+        <v>78</v>
+      </c>
+      <c r="B30" s="29" t="s">
+        <v>16</v>
+      </c>
       <c r="C30" s="43"/>
       <c r="D30" s="44"/>
       <c r="E30" s="45"/>
       <c r="F30" s="43"/>
       <c r="G30" s="46"/>
     </row>
-    <row r="31" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A31" s="52" t="s">
-        <v>74</v>
-      </c>
-      <c r="B31" s="29"/>
+        <v>79</v>
+      </c>
+      <c r="B31" s="29" t="s">
+        <v>13</v>
+      </c>
       <c r="C31" s="43"/>
       <c r="D31" s="44"/>
       <c r="E31" s="45"/>
       <c r="F31" s="43"/>
       <c r="G31" s="46"/>
     </row>
-    <row r="32" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="51" t="s">
-        <v>65</v>
-      </c>
-      <c r="B32" s="29"/>
+    <row r="32" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A32" s="52" t="s">
+        <v>81</v>
+      </c>
+      <c r="B32" s="29" t="s">
+        <v>16</v>
+      </c>
       <c r="C32" s="43"/>
       <c r="D32" s="44"/>
       <c r="E32" s="45"/>
       <c r="F32" s="43"/>
       <c r="G32" s="46"/>
     </row>
-    <row r="33" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="51" t="s">
-        <v>64</v>
-      </c>
-      <c r="B33" s="29"/>
+    <row r="33" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A33" s="52" t="s">
+        <v>82</v>
+      </c>
+      <c r="B33" s="29" t="s">
+        <v>16</v>
+      </c>
       <c r="C33" s="43"/>
       <c r="D33" s="44"/>
       <c r="E33" s="45"/>
       <c r="F33" s="43"/>
       <c r="G33" s="46"/>
     </row>
-    <row r="34" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A34" s="52" t="s">
-        <v>71</v>
-      </c>
-      <c r="B34" s="29"/>
+    <row r="34" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="50" t="s">
+        <v>59</v>
+      </c>
+      <c r="B34" s="29" t="s">
+        <v>16</v>
+      </c>
       <c r="C34" s="43"/>
       <c r="D34" s="44"/>
       <c r="E34" s="45"/>
       <c r="F34" s="43"/>
       <c r="G34" s="46"/>
     </row>
-    <row r="35" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="52" t="s">
-        <v>72</v>
-      </c>
-      <c r="B35" s="29"/>
+        <v>80</v>
+      </c>
+      <c r="B35" s="29" t="s">
+        <v>16</v>
+      </c>
       <c r="C35" s="43"/>
       <c r="D35" s="44"/>
       <c r="E35" s="45"/>
       <c r="F35" s="43"/>
       <c r="G35" s="46"/>
     </row>
-    <row r="36" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A36" s="52" t="s">
+    <row r="36" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="50" t="s">
+        <v>60</v>
+      </c>
+      <c r="B36" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="C36" s="43"/>
+      <c r="D36" s="44"/>
+      <c r="E36" s="45"/>
+      <c r="F36" s="43"/>
+      <c r="G36" s="46"/>
+    </row>
+    <row r="37" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="50" t="s">
+        <v>61</v>
+      </c>
+      <c r="B37" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="C37" s="43"/>
+      <c r="D37" s="44"/>
+      <c r="E37" s="45"/>
+      <c r="F37" s="43"/>
+      <c r="G37" s="46"/>
+    </row>
+    <row r="38" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="51" t="s">
+        <v>69</v>
+      </c>
+      <c r="B38" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="C38" s="43"/>
+      <c r="D38" s="44"/>
+      <c r="E38" s="45"/>
+      <c r="F38" s="43"/>
+      <c r="G38" s="46"/>
+    </row>
+    <row r="39" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="51" t="s">
+        <v>84</v>
+      </c>
+      <c r="B39" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" s="43"/>
+      <c r="D39" s="44"/>
+      <c r="E39" s="45"/>
+      <c r="F39" s="43"/>
+      <c r="G39" s="46"/>
+    </row>
+    <row r="40" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="B40" s="29"/>
+      <c r="C40" s="43"/>
+      <c r="D40" s="44"/>
+      <c r="E40" s="45"/>
+      <c r="F40" s="43"/>
+      <c r="G40" s="46"/>
+    </row>
+    <row r="41" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="51" t="s">
+        <v>62</v>
+      </c>
+      <c r="B41" s="29"/>
+      <c r="C41" s="43"/>
+      <c r="D41" s="44"/>
+      <c r="E41" s="45"/>
+      <c r="F41" s="43"/>
+      <c r="G41" s="46"/>
+    </row>
+    <row r="42" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="52" t="s">
+        <v>71</v>
+      </c>
+      <c r="B42" s="29"/>
+      <c r="C42" s="43"/>
+      <c r="D42" s="44"/>
+      <c r="E42" s="45"/>
+      <c r="F42" s="43"/>
+      <c r="G42" s="46"/>
+    </row>
+    <row r="43" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="52" t="s">
+        <v>72</v>
+      </c>
+      <c r="B43" s="29"/>
+      <c r="C43" s="43"/>
+      <c r="D43" s="44"/>
+      <c r="E43" s="45"/>
+      <c r="F43" s="43"/>
+      <c r="G43" s="46"/>
+    </row>
+    <row r="44" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="52" t="s">
         <v>73</v>
       </c>
-      <c r="B36" s="29"/>
-      <c r="C36" s="30"/>
-      <c r="D36" s="32"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="30"/>
-      <c r="G36" s="31"/>
-    </row>
-    <row r="37" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A37" s="52" t="s">
+      <c r="B44" s="29"/>
+      <c r="C44" s="43"/>
+      <c r="D44" s="44"/>
+      <c r="E44" s="45"/>
+      <c r="F44" s="43"/>
+      <c r="G44" s="46"/>
+    </row>
+    <row r="45" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="52" t="s">
         <v>74</v>
       </c>
-      <c r="B37" s="29"/>
-      <c r="C37" s="30"/>
-      <c r="D37" s="32"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="30"/>
-      <c r="G37" s="31"/>
-    </row>
-    <row r="38" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A38" s="49" t="s">
-        <v>69</v>
-      </c>
-      <c r="B38" s="29"/>
-      <c r="C38" s="30"/>
-      <c r="D38" s="32"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="30"/>
-      <c r="G38" s="31"/>
-    </row>
-    <row r="39" spans="1:7" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="28"/>
-      <c r="B39" s="29"/>
-      <c r="C39" s="30"/>
-      <c r="D39" s="32"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="30"/>
-      <c r="G39" s="31"/>
-    </row>
-    <row r="40" spans="1:7" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="28"/>
-      <c r="B40" s="29"/>
-      <c r="C40" s="30"/>
-      <c r="D40" s="32"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="30"/>
-      <c r="G40" s="31"/>
-    </row>
-    <row r="41" spans="1:7" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="28"/>
-      <c r="B41" s="29"/>
-      <c r="C41" s="30"/>
-      <c r="D41" s="32"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="30"/>
-      <c r="G41" s="31"/>
-    </row>
-    <row r="42" spans="1:7" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="28"/>
-      <c r="B42" s="29"/>
-      <c r="C42" s="30"/>
-      <c r="D42" s="32"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="30"/>
-      <c r="G42" s="31"/>
-    </row>
-    <row r="43" spans="1:7" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="28"/>
-      <c r="B43" s="29"/>
-      <c r="C43" s="30"/>
-      <c r="D43" s="32"/>
-      <c r="E43" s="3"/>
-      <c r="F43" s="30"/>
-      <c r="G43" s="31"/>
-    </row>
-    <row r="44" spans="1:7" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="28"/>
-      <c r="B44" s="29"/>
-      <c r="C44" s="30"/>
-      <c r="D44" s="32"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="30"/>
-      <c r="G44" s="31"/>
-    </row>
-    <row r="45" spans="1:7" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="28"/>
       <c r="B45" s="29"/>
-      <c r="C45" s="30"/>
-      <c r="D45" s="32"/>
-      <c r="E45" s="3"/>
-      <c r="F45" s="30"/>
-      <c r="G45" s="31"/>
-    </row>
-    <row r="46" spans="1:7" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="28"/>
+      <c r="C45" s="43"/>
+      <c r="D45" s="44"/>
+      <c r="E45" s="45"/>
+      <c r="F45" s="43"/>
+      <c r="G45" s="46"/>
+    </row>
+    <row r="46" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="51" t="s">
+        <v>65</v>
+      </c>
       <c r="B46" s="29"/>
-      <c r="C46" s="30"/>
-      <c r="D46" s="32"/>
-      <c r="E46" s="3"/>
-      <c r="F46" s="30"/>
-      <c r="G46" s="31"/>
-    </row>
-    <row r="47" spans="1:7" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="28"/>
+      <c r="C46" s="43"/>
+      <c r="D46" s="44"/>
+      <c r="E46" s="45"/>
+      <c r="F46" s="43"/>
+      <c r="G46" s="46"/>
+    </row>
+    <row r="47" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="51" t="s">
+        <v>64</v>
+      </c>
       <c r="B47" s="29"/>
-      <c r="C47" s="30"/>
-      <c r="D47" s="32"/>
-      <c r="E47" s="3"/>
-      <c r="F47" s="30"/>
-      <c r="G47" s="31"/>
-    </row>
-    <row r="48" spans="1:7" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="28"/>
+      <c r="C47" s="43"/>
+      <c r="D47" s="44"/>
+      <c r="E47" s="45"/>
+      <c r="F47" s="43"/>
+      <c r="G47" s="46"/>
+    </row>
+    <row r="48" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A48" s="52" t="s">
+        <v>71</v>
+      </c>
       <c r="B48" s="29"/>
-      <c r="C48" s="30"/>
-      <c r="D48" s="32"/>
-      <c r="E48" s="3"/>
-      <c r="F48" s="30"/>
-      <c r="G48" s="31"/>
-    </row>
-    <row r="49" spans="1:7" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="28"/>
+      <c r="C48" s="43"/>
+      <c r="D48" s="44"/>
+      <c r="E48" s="45"/>
+      <c r="F48" s="43"/>
+      <c r="G48" s="46"/>
+    </row>
+    <row r="49" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A49" s="52" t="s">
+        <v>72</v>
+      </c>
       <c r="B49" s="29"/>
-      <c r="C49" s="30"/>
-      <c r="D49" s="32"/>
-      <c r="E49" s="3"/>
-      <c r="F49" s="30"/>
-      <c r="G49" s="31"/>
-    </row>
-    <row r="50" spans="1:7" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="28"/>
+      <c r="C49" s="43"/>
+      <c r="D49" s="44"/>
+      <c r="E49" s="45"/>
+      <c r="F49" s="43"/>
+      <c r="G49" s="46"/>
+    </row>
+    <row r="50" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A50" s="52" t="s">
+        <v>73</v>
+      </c>
       <c r="B50" s="29"/>
       <c r="C50" s="30"/>
       <c r="D50" s="32"/>
@@ -2167,8 +2269,10 @@
       <c r="F50" s="30"/>
       <c r="G50" s="31"/>
     </row>
-    <row r="51" spans="1:7" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="28"/>
+    <row r="51" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A51" s="52" t="s">
+        <v>74</v>
+      </c>
       <c r="B51" s="29"/>
       <c r="C51" s="30"/>
       <c r="D51" s="32"/>
@@ -2176,35 +2280,149 @@
       <c r="F51" s="30"/>
       <c r="G51" s="31"/>
     </row>
-    <row r="52" spans="1:7" ht="26.1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="53" spans="1:7" ht="26.1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="54" spans="1:7" ht="26.1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="55" spans="1:7" ht="26.1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="56" spans="1:7" ht="26.1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="57" spans="1:7" ht="26.1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="58" spans="1:7" ht="26.1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="59" spans="1:7" ht="26.1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="60" spans="1:7" ht="26.1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="61" spans="1:7" ht="26.1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="62" spans="1:7" ht="26.1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="63" spans="1:7" ht="26.1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="64" spans="1:7" ht="26.1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="65" ht="26.1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="66" ht="26.1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="67" ht="26.1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="68" ht="26.1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="69" ht="26.1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="70" ht="26.1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="71" ht="26.1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="72" ht="26.1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="73" ht="26.1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="74" ht="26.1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="75" ht="26.1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="76" ht="26.1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="77" ht="26.1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="78" ht="26.1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="79" ht="26.1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="80" ht="26.1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="52" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A52" s="49" t="s">
+        <v>69</v>
+      </c>
+      <c r="B52" s="29"/>
+      <c r="C52" s="30"/>
+      <c r="D52" s="32"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="30"/>
+      <c r="G52" s="31"/>
+    </row>
+    <row r="53" spans="1:7" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="28"/>
+      <c r="B53" s="29"/>
+      <c r="C53" s="30"/>
+      <c r="D53" s="32"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="30"/>
+      <c r="G53" s="31"/>
+    </row>
+    <row r="54" spans="1:7" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="28"/>
+      <c r="B54" s="29"/>
+      <c r="C54" s="30"/>
+      <c r="D54" s="32"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="30"/>
+      <c r="G54" s="31"/>
+    </row>
+    <row r="55" spans="1:7" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="28"/>
+      <c r="B55" s="29"/>
+      <c r="C55" s="30"/>
+      <c r="D55" s="32"/>
+      <c r="E55" s="3"/>
+      <c r="F55" s="30"/>
+      <c r="G55" s="31"/>
+    </row>
+    <row r="56" spans="1:7" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="28"/>
+      <c r="B56" s="29"/>
+      <c r="C56" s="30"/>
+      <c r="D56" s="32"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="30"/>
+      <c r="G56" s="31"/>
+    </row>
+    <row r="57" spans="1:7" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="28"/>
+      <c r="B57" s="29"/>
+      <c r="C57" s="30"/>
+      <c r="D57" s="32"/>
+      <c r="E57" s="3"/>
+      <c r="F57" s="30"/>
+      <c r="G57" s="31"/>
+    </row>
+    <row r="58" spans="1:7" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="28"/>
+      <c r="B58" s="29"/>
+      <c r="C58" s="30"/>
+      <c r="D58" s="32"/>
+      <c r="E58" s="3"/>
+      <c r="F58" s="30"/>
+      <c r="G58" s="31"/>
+    </row>
+    <row r="59" spans="1:7" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="28"/>
+      <c r="B59" s="29"/>
+      <c r="C59" s="30"/>
+      <c r="D59" s="32"/>
+      <c r="E59" s="3"/>
+      <c r="F59" s="30"/>
+      <c r="G59" s="31"/>
+    </row>
+    <row r="60" spans="1:7" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="28"/>
+      <c r="B60" s="29"/>
+      <c r="C60" s="30"/>
+      <c r="D60" s="32"/>
+      <c r="E60" s="3"/>
+      <c r="F60" s="30"/>
+      <c r="G60" s="31"/>
+    </row>
+    <row r="61" spans="1:7" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="28"/>
+      <c r="B61" s="29"/>
+      <c r="C61" s="30"/>
+      <c r="D61" s="32"/>
+      <c r="E61" s="3"/>
+      <c r="F61" s="30"/>
+      <c r="G61" s="31"/>
+    </row>
+    <row r="62" spans="1:7" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="28"/>
+      <c r="B62" s="29"/>
+      <c r="C62" s="30"/>
+      <c r="D62" s="32"/>
+      <c r="E62" s="3"/>
+      <c r="F62" s="30"/>
+      <c r="G62" s="31"/>
+    </row>
+    <row r="63" spans="1:7" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="28"/>
+      <c r="B63" s="29"/>
+      <c r="C63" s="30"/>
+      <c r="D63" s="32"/>
+      <c r="E63" s="3"/>
+      <c r="F63" s="30"/>
+      <c r="G63" s="31"/>
+    </row>
+    <row r="64" spans="1:7" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="28"/>
+      <c r="B64" s="29"/>
+      <c r="C64" s="30"/>
+      <c r="D64" s="32"/>
+      <c r="E64" s="3"/>
+      <c r="F64" s="30"/>
+      <c r="G64" s="31"/>
+    </row>
+    <row r="65" spans="1:7" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="28"/>
+      <c r="B65" s="29"/>
+      <c r="C65" s="30"/>
+      <c r="D65" s="32"/>
+      <c r="E65" s="3"/>
+      <c r="F65" s="30"/>
+      <c r="G65" s="31"/>
+    </row>
+    <row r="66" spans="1:7" ht="26.1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="67" spans="1:7" ht="26.1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="68" spans="1:7" ht="26.1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="69" spans="1:7" ht="26.1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="70" spans="1:7" ht="26.1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="71" spans="1:7" ht="26.1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="72" spans="1:7" ht="26.1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="73" spans="1:7" ht="26.1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="74" spans="1:7" ht="26.1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="75" spans="1:7" ht="26.1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="76" spans="1:7" ht="26.1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="77" spans="1:7" ht="26.1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="78" spans="1:7" ht="26.1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="79" spans="1:7" ht="26.1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="80" spans="1:7" ht="26.1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="81" ht="26.1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="82" ht="26.1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="83" ht="26.1" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2300,9 +2518,23 @@
     <row r="173" ht="26.1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="174" ht="26.1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="175" ht="26.1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="176" ht="26.1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="177" ht="26.1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="178" ht="26.1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="179" ht="26.1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="180" ht="26.1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="181" ht="26.1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="182" ht="26.1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="183" ht="26.1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="184" ht="26.1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="185" ht="26.1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="186" ht="26.1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="187" ht="26.1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="188" ht="26.1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="189" ht="26.1" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="C5:C51">
+  <conditionalFormatting sqref="C5:C65">
     <cfRule type="cellIs" dxfId="2" priority="6" stopIfTrue="1" operator="equal">
       <formula>"high"</formula>
     </cfRule>
@@ -2310,19 +2542,19 @@
       <formula>"low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E5:E51">
+  <conditionalFormatting sqref="E5:E65">
     <cfRule type="cellIs" dxfId="0" priority="8" stopIfTrue="1" operator="lessThan">
       <formula>TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5:B51">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5:B65">
       <formula1>status</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C51">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C65">
       <formula1>priority</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D51">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D65">
       <formula1>pick</formula1>
     </dataValidation>
   </dataValidations>
@@ -2343,7 +2575,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="4" id="{533540A5-6A84-4573-A269-D478FEABF703}">
+          <x14:cfRule type="iconSet" priority="22" id="{533540A5-6A84-4573-A269-D478FEABF703}">
             <x14:iconSet iconSet="3Symbols" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -2359,7 +2591,7 @@
               <x14:cfIcon iconSet="3TrafficLights1" iconId="2"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>E4:E51</xm:sqref>
+          <xm:sqref>E4:E65</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/trunk/Project Planning/to-do-list.xlsx
+++ b/trunk/Project Planning/to-do-list.xlsx
@@ -17,7 +17,7 @@
     <sheet name="Help" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ToDoList!$A$4:$G$65</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ToDoList!$A$4:$G$66</definedName>
     <definedName name="pick">OFFSET(Lists!$C$1,1,0,MATCH(REPT("z",255),Lists!$C:$C),1)</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">ToDoList!$A:$G</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">ToDoList!$4:$4</definedName>
@@ -143,7 +143,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="97">
   <si>
     <t>To Do List</t>
   </si>
@@ -431,6 +431,9 @@
   </si>
   <si>
     <t>Define message box style</t>
+  </si>
+  <si>
+    <t>Design layout and icon</t>
   </si>
 </sst>
 </file>
@@ -715,7 +718,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -861,16 +864,31 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="20">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -1332,27 +1350,27 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A4:G65" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
-  <autoFilter ref="A4:G65"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A4:G66" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
+  <autoFilter ref="A4:G66"/>
   <tableColumns count="7">
-    <tableColumn id="6" name="Project / Task" dataDxfId="15"/>
-    <tableColumn id="1" name="Status" dataDxfId="14"/>
-    <tableColumn id="2" name="Priority" dataDxfId="13"/>
-    <tableColumn id="3" name="PICK" dataDxfId="12"/>
-    <tableColumn id="4" name="Due Date" dataDxfId="11"/>
-    <tableColumn id="5" name="Owner" dataDxfId="10"/>
-    <tableColumn id="7" name="Notes" dataDxfId="9"/>
+    <tableColumn id="6" name="Project / Task" dataDxfId="17"/>
+    <tableColumn id="1" name="Status" dataDxfId="16"/>
+    <tableColumn id="2" name="Priority" dataDxfId="15"/>
+    <tableColumn id="3" name="PICK" dataDxfId="14"/>
+    <tableColumn id="4" name="Due Date" dataDxfId="13"/>
+    <tableColumn id="5" name="Owner" dataDxfId="12"/>
+    <tableColumn id="7" name="Notes" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:C23" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7" tableBorderDxfId="6" dataCellStyle="Normal">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:C23" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9" tableBorderDxfId="8" dataCellStyle="Normal">
   <tableColumns count="3">
-    <tableColumn id="1" name="Status" dataDxfId="5" dataCellStyle="Normal"/>
-    <tableColumn id="2" name="Priority" dataDxfId="4" dataCellStyle="Normal"/>
-    <tableColumn id="3" name="PICK" dataDxfId="3" dataCellStyle="Normal"/>
+    <tableColumn id="1" name="Status" dataDxfId="7" dataCellStyle="Normal"/>
+    <tableColumn id="2" name="Priority" dataDxfId="6" dataCellStyle="Normal"/>
+    <tableColumn id="3" name="PICK" dataDxfId="5" dataCellStyle="Normal"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1648,10 +1666,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I189"/>
+  <dimension ref="A1:I190"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1743,7 +1761,9 @@
       <c r="G7" s="48"/>
     </row>
     <row r="8" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="54"/>
+      <c r="A8" s="52" t="s">
+        <v>96</v>
+      </c>
       <c r="B8" s="42"/>
       <c r="C8" s="43"/>
       <c r="D8" s="44"/>
@@ -1829,22 +1849,24 @@
     </row>
     <row r="15" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="51" t="s">
-        <v>86</v>
-      </c>
-      <c r="B15" s="29"/>
+        <v>65</v>
+      </c>
+      <c r="B15" s="42" t="s">
+        <v>10</v>
+      </c>
       <c r="C15" s="43"/>
       <c r="D15" s="44"/>
-      <c r="E15" s="45"/>
+      <c r="E15" s="45">
+        <v>41895</v>
+      </c>
       <c r="F15" s="43"/>
       <c r="G15" s="48"/>
     </row>
     <row r="16" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="52" t="s">
-        <v>92</v>
-      </c>
-      <c r="B16" s="29" t="s">
-        <v>10</v>
-      </c>
+      <c r="A16" s="51" t="s">
+        <v>86</v>
+      </c>
+      <c r="B16" s="29"/>
       <c r="C16" s="43"/>
       <c r="D16" s="44"/>
       <c r="E16" s="45"/>
@@ -1853,20 +1875,22 @@
     </row>
     <row r="17" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="52" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B17" s="29" t="s">
         <v>10</v>
       </c>
       <c r="C17" s="43"/>
       <c r="D17" s="44"/>
-      <c r="E17" s="45"/>
+      <c r="E17" s="45">
+        <v>41895</v>
+      </c>
       <c r="F17" s="43"/>
       <c r="G17" s="48"/>
     </row>
     <row r="18" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="52" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B18" s="29" t="s">
         <v>10</v>
@@ -1878,73 +1902,73 @@
       <c r="G18" s="48"/>
     </row>
     <row r="19" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A19" s="47" t="s">
-        <v>67</v>
-      </c>
-      <c r="B19" s="42"/>
+      <c r="A19" s="52" t="s">
+        <v>95</v>
+      </c>
+      <c r="B19" s="29" t="s">
+        <v>10</v>
+      </c>
       <c r="C19" s="43"/>
       <c r="D19" s="44"/>
       <c r="E19" s="45"/>
       <c r="F19" s="43"/>
       <c r="G19" s="48"/>
     </row>
-    <row r="20" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="49" t="s">
+    <row r="20" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A20" s="47" t="s">
+        <v>67</v>
+      </c>
+      <c r="B20" s="42"/>
+      <c r="C20" s="43"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="43"/>
+      <c r="G20" s="48"/>
+    </row>
+    <row r="21" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="49" t="s">
         <v>62</v>
       </c>
-      <c r="B20" s="29" t="s">
+      <c r="B21" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="30" t="s">
+      <c r="C21" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="D20" s="32"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="31"/>
-    </row>
-    <row r="21" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="50" t="s">
+      <c r="D21" s="32"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="31"/>
+    </row>
+    <row r="22" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="50" t="s">
         <v>63</v>
-      </c>
-      <c r="B21" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="C21" s="38"/>
-      <c r="D21" s="39"/>
-      <c r="E21" s="40"/>
-      <c r="F21" s="38"/>
-      <c r="G21" s="41"/>
-    </row>
-    <row r="22" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="52" t="s">
-        <v>75</v>
       </c>
       <c r="B22" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="43"/>
-      <c r="D22" s="44"/>
-      <c r="E22" s="45"/>
-      <c r="F22" s="43"/>
-      <c r="G22" s="46"/>
+      <c r="C22" s="38"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="41"/>
     </row>
     <row r="23" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="50" t="s">
-        <v>59</v>
+      <c r="A23" s="52" t="s">
+        <v>75</v>
       </c>
       <c r="B23" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="C23" s="38"/>
-      <c r="D23" s="39"/>
-      <c r="E23" s="40"/>
-      <c r="F23" s="38"/>
-      <c r="G23" s="41"/>
+      <c r="C23" s="43"/>
+      <c r="D23" s="44"/>
+      <c r="E23" s="45"/>
+      <c r="F23" s="43"/>
+      <c r="G23" s="46"/>
     </row>
     <row r="24" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="50" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B24" s="29" t="s">
         <v>16</v>
@@ -1957,7 +1981,7 @@
     </row>
     <row r="25" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="50" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B25" s="29" t="s">
         <v>16</v>
@@ -1969,34 +1993,36 @@
       <c r="G25" s="41"/>
     </row>
     <row r="26" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="49" t="s">
-        <v>65</v>
+      <c r="A26" s="50" t="s">
+        <v>61</v>
       </c>
       <c r="B26" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="C26" s="30" t="s">
+      <c r="C26" s="38"/>
+      <c r="D26" s="39"/>
+      <c r="E26" s="40"/>
+      <c r="F26" s="38"/>
+      <c r="G26" s="41"/>
+    </row>
+    <row r="27" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="49" t="s">
+        <v>65</v>
+      </c>
+      <c r="B27" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="D26" s="32"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="30"/>
-      <c r="G26" s="31"/>
-    </row>
-    <row r="27" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="51" t="s">
+      <c r="D27" s="32"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="31"/>
+    </row>
+    <row r="28" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="51" t="s">
         <v>64</v>
-      </c>
-      <c r="B27" s="29"/>
-      <c r="C27" s="43"/>
-      <c r="D27" s="44"/>
-      <c r="E27" s="45"/>
-      <c r="F27" s="43"/>
-      <c r="G27" s="46"/>
-    </row>
-    <row r="28" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="50" t="s">
-        <v>76</v>
       </c>
       <c r="B28" s="29"/>
       <c r="C28" s="43"/>
@@ -2006,8 +2032,8 @@
       <c r="G28" s="46"/>
     </row>
     <row r="29" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="52" t="s">
-        <v>77</v>
+      <c r="A29" s="50" t="s">
+        <v>76</v>
       </c>
       <c r="B29" s="29" t="s">
         <v>16</v>
@@ -2018,9 +2044,9 @@
       <c r="F29" s="43"/>
       <c r="G29" s="46"/>
     </row>
-    <row r="30" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="52" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B30" s="29" t="s">
         <v>16</v>
@@ -2033,10 +2059,10 @@
     </row>
     <row r="31" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A31" s="52" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B31" s="29" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C31" s="43"/>
       <c r="D31" s="44"/>
@@ -2044,22 +2070,24 @@
       <c r="F31" s="43"/>
       <c r="G31" s="46"/>
     </row>
-    <row r="32" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A32" s="52" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B32" s="29" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C32" s="43"/>
       <c r="D32" s="44"/>
-      <c r="E32" s="45"/>
+      <c r="E32" s="45">
+        <v>41895</v>
+      </c>
       <c r="F32" s="43"/>
       <c r="G32" s="46"/>
     </row>
     <row r="33" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A33" s="52" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B33" s="29" t="s">
         <v>16</v>
@@ -2070,9 +2098,9 @@
       <c r="F33" s="43"/>
       <c r="G33" s="46"/>
     </row>
-    <row r="34" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="50" t="s">
-        <v>59</v>
+    <row r="34" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A34" s="52" t="s">
+        <v>82</v>
       </c>
       <c r="B34" s="29" t="s">
         <v>16</v>
@@ -2084,8 +2112,8 @@
       <c r="G34" s="46"/>
     </row>
     <row r="35" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="52" t="s">
-        <v>80</v>
+      <c r="A35" s="50" t="s">
+        <v>59</v>
       </c>
       <c r="B35" s="29" t="s">
         <v>16</v>
@@ -2097,8 +2125,8 @@
       <c r="G35" s="46"/>
     </row>
     <row r="36" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="50" t="s">
-        <v>60</v>
+      <c r="A36" s="52" t="s">
+        <v>80</v>
       </c>
       <c r="B36" s="29" t="s">
         <v>16</v>
@@ -2111,7 +2139,7 @@
     </row>
     <row r="37" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="50" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B37" s="29" t="s">
         <v>16</v>
@@ -2123,11 +2151,11 @@
       <c r="G37" s="46"/>
     </row>
     <row r="38" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="51" t="s">
-        <v>69</v>
+      <c r="A38" s="50" t="s">
+        <v>61</v>
       </c>
       <c r="B38" s="29" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C38" s="43"/>
       <c r="D38" s="44"/>
@@ -2137,7 +2165,7 @@
     </row>
     <row r="39" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="51" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="B39" s="29" t="s">
         <v>10</v>
@@ -2149,10 +2177,12 @@
       <c r="G39" s="46"/>
     </row>
     <row r="40" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="47" t="s">
-        <v>70</v>
-      </c>
-      <c r="B40" s="29"/>
+      <c r="A40" s="51" t="s">
+        <v>84</v>
+      </c>
+      <c r="B40" s="29" t="s">
+        <v>10</v>
+      </c>
       <c r="C40" s="43"/>
       <c r="D40" s="44"/>
       <c r="E40" s="45"/>
@@ -2160,8 +2190,8 @@
       <c r="G40" s="46"/>
     </row>
     <row r="41" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="51" t="s">
-        <v>62</v>
+      <c r="A41" s="47" t="s">
+        <v>70</v>
       </c>
       <c r="B41" s="29"/>
       <c r="C41" s="43"/>
@@ -2171,8 +2201,8 @@
       <c r="G41" s="46"/>
     </row>
     <row r="42" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="52" t="s">
-        <v>71</v>
+      <c r="A42" s="51" t="s">
+        <v>62</v>
       </c>
       <c r="B42" s="29"/>
       <c r="C42" s="43"/>
@@ -2183,7 +2213,7 @@
     </row>
     <row r="43" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="52" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B43" s="29"/>
       <c r="C43" s="43"/>
@@ -2194,7 +2224,7 @@
     </row>
     <row r="44" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="52" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B44" s="29"/>
       <c r="C44" s="43"/>
@@ -2205,7 +2235,7 @@
     </row>
     <row r="45" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="52" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B45" s="29"/>
       <c r="C45" s="43"/>
@@ -2215,8 +2245,8 @@
       <c r="G45" s="46"/>
     </row>
     <row r="46" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="51" t="s">
-        <v>65</v>
+      <c r="A46" s="52" t="s">
+        <v>74</v>
       </c>
       <c r="B46" s="29"/>
       <c r="C46" s="43"/>
@@ -2227,7 +2257,7 @@
     </row>
     <row r="47" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="51" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B47" s="29"/>
       <c r="C47" s="43"/>
@@ -2236,9 +2266,9 @@
       <c r="F47" s="43"/>
       <c r="G47" s="46"/>
     </row>
-    <row r="48" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A48" s="52" t="s">
-        <v>71</v>
+    <row r="48" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="51" t="s">
+        <v>64</v>
       </c>
       <c r="B48" s="29"/>
       <c r="C48" s="43"/>
@@ -2249,7 +2279,7 @@
     </row>
     <row r="49" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A49" s="52" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B49" s="29"/>
       <c r="C49" s="43"/>
@@ -2260,18 +2290,18 @@
     </row>
     <row r="50" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A50" s="52" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B50" s="29"/>
-      <c r="C50" s="30"/>
-      <c r="D50" s="32"/>
-      <c r="E50" s="3"/>
-      <c r="F50" s="30"/>
-      <c r="G50" s="31"/>
+      <c r="C50" s="43"/>
+      <c r="D50" s="44"/>
+      <c r="E50" s="45"/>
+      <c r="F50" s="43"/>
+      <c r="G50" s="46"/>
     </row>
     <row r="51" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A51" s="52" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B51" s="29"/>
       <c r="C51" s="30"/>
@@ -2281,8 +2311,8 @@
       <c r="G51" s="31"/>
     </row>
     <row r="52" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A52" s="49" t="s">
-        <v>69</v>
+      <c r="A52" s="52" t="s">
+        <v>74</v>
       </c>
       <c r="B52" s="29"/>
       <c r="C52" s="30"/>
@@ -2291,8 +2321,10 @@
       <c r="F52" s="30"/>
       <c r="G52" s="31"/>
     </row>
-    <row r="53" spans="1:7" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="28"/>
+    <row r="53" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A53" s="49" t="s">
+        <v>69</v>
+      </c>
       <c r="B53" s="29"/>
       <c r="C53" s="30"/>
       <c r="D53" s="32"/>
@@ -2408,7 +2440,15 @@
       <c r="F65" s="30"/>
       <c r="G65" s="31"/>
     </row>
-    <row r="66" spans="1:7" ht="26.1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="66" spans="1:7" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="28"/>
+      <c r="B66" s="29"/>
+      <c r="C66" s="30"/>
+      <c r="D66" s="32"/>
+      <c r="E66" s="3"/>
+      <c r="F66" s="30"/>
+      <c r="G66" s="31"/>
+    </row>
     <row r="67" spans="1:7" ht="26.1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="68" spans="1:7" ht="26.1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="69" spans="1:7" ht="26.1" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2532,29 +2572,30 @@
     <row r="187" ht="26.1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="188" ht="26.1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="189" ht="26.1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="190" ht="26.1" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="C5:C65">
-    <cfRule type="cellIs" dxfId="2" priority="6" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="C5:C66">
+    <cfRule type="cellIs" dxfId="4" priority="6" stopIfTrue="1" operator="equal">
       <formula>"high"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="7" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="7" stopIfTrue="1" operator="equal">
       <formula>"low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E5:E65">
-    <cfRule type="cellIs" dxfId="0" priority="8" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="E5:E66">
+    <cfRule type="cellIs" dxfId="2" priority="8" stopIfTrue="1" operator="lessThan">
       <formula>TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5:B65">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5:B66">
       <formula1>status</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C65">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C66">
       <formula1>priority</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D65">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D66">
       <formula1>pick</formula1>
     </dataValidation>
   </dataValidations>
@@ -2591,7 +2632,7 @@
               <x14:cfIcon iconSet="3TrafficLights1" iconId="2"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>E4:E65</xm:sqref>
+          <xm:sqref>E4:E66</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/trunk/Project Planning/to-do-list.xlsx
+++ b/trunk/Project Planning/to-do-list.xlsx
@@ -17,7 +17,7 @@
     <sheet name="Help" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ToDoList!$A$4:$G$66</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ToDoList!$A$4:$G$69</definedName>
     <definedName name="pick">OFFSET(Lists!$C$1,1,0,MATCH(REPT("z",255),Lists!$C:$C),1)</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">ToDoList!$A:$G</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">ToDoList!$4:$4</definedName>
@@ -143,7 +143,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="101">
   <si>
     <t>To Do List</t>
   </si>
@@ -421,19 +421,31 @@
     <t>Position name</t>
   </si>
   <si>
-    <t>Add datetime picker</t>
-  </si>
-  <si>
-    <t>Apply form to app</t>
-  </si>
-  <si>
     <t>Misc</t>
   </si>
   <si>
-    <t>Define message box style</t>
-  </si>
-  <si>
     <t>Design layout and icon</t>
+  </si>
+  <si>
+    <t>Notification</t>
+  </si>
+  <si>
+    <t>Apply layout</t>
+  </si>
+  <si>
+    <t>Build Control</t>
+  </si>
+  <si>
+    <t>Date time picker</t>
+  </si>
+  <si>
+    <t>Auto complete</t>
+  </si>
+  <si>
+    <t>Quy Nhon side will in charge</t>
+  </si>
+  <si>
+    <t>Message box</t>
   </si>
 </sst>
 </file>
@@ -443,7 +455,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
   </numFmts>
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Arial"/>
@@ -617,6 +629,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -718,7 +740,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -862,24 +884,39 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="27" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="20">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
+  <dxfs count="19">
     <dxf>
       <font>
         <b/>
@@ -1350,27 +1387,27 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A4:G66" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
-  <autoFilter ref="A4:G66"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A4:G69" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
+  <autoFilter ref="A4:G69"/>
   <tableColumns count="7">
-    <tableColumn id="6" name="Project / Task" dataDxfId="17"/>
-    <tableColumn id="1" name="Status" dataDxfId="16"/>
-    <tableColumn id="2" name="Priority" dataDxfId="15"/>
-    <tableColumn id="3" name="PICK" dataDxfId="14"/>
-    <tableColumn id="4" name="Due Date" dataDxfId="13"/>
-    <tableColumn id="5" name="Owner" dataDxfId="12"/>
-    <tableColumn id="7" name="Notes" dataDxfId="11"/>
+    <tableColumn id="6" name="Project / Task" dataDxfId="16"/>
+    <tableColumn id="1" name="Status" dataDxfId="15"/>
+    <tableColumn id="2" name="Priority" dataDxfId="14"/>
+    <tableColumn id="3" name="PICK" dataDxfId="13"/>
+    <tableColumn id="4" name="Due Date" dataDxfId="12"/>
+    <tableColumn id="5" name="Owner" dataDxfId="11"/>
+    <tableColumn id="7" name="Notes" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:C23" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9" tableBorderDxfId="8" dataCellStyle="Normal">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:C23" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8" tableBorderDxfId="7" dataCellStyle="Normal">
   <tableColumns count="3">
-    <tableColumn id="1" name="Status" dataDxfId="7" dataCellStyle="Normal"/>
-    <tableColumn id="2" name="Priority" dataDxfId="6" dataCellStyle="Normal"/>
-    <tableColumn id="3" name="PICK" dataDxfId="5" dataCellStyle="Normal"/>
+    <tableColumn id="1" name="Status" dataDxfId="6" dataCellStyle="Normal"/>
+    <tableColumn id="2" name="Priority" dataDxfId="5" dataCellStyle="Normal"/>
+    <tableColumn id="3" name="PICK" dataDxfId="4" dataCellStyle="Normal"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1666,10 +1703,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I190"/>
+  <dimension ref="A1:I193"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1751,7 +1788,7 @@
     </row>
     <row r="7" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="51" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B7" s="42"/>
       <c r="C7" s="43"/>
@@ -1762,14 +1799,18 @@
     </row>
     <row r="8" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="52" t="s">
-        <v>96</v>
-      </c>
-      <c r="B8" s="42"/>
+        <v>93</v>
+      </c>
+      <c r="B8" s="29" t="s">
+        <v>10</v>
+      </c>
       <c r="C8" s="43"/>
       <c r="D8" s="44"/>
       <c r="E8" s="45"/>
       <c r="F8" s="43"/>
-      <c r="G8" s="48"/>
+      <c r="G8" s="48" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="9" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="51" t="s">
@@ -1851,7 +1892,7 @@
       <c r="A15" s="51" t="s">
         <v>65</v>
       </c>
-      <c r="B15" s="42" t="s">
+      <c r="B15" s="29" t="s">
         <v>10</v>
       </c>
       <c r="C15" s="43"/>
@@ -1874,114 +1915,112 @@
       <c r="G16" s="48"/>
     </row>
     <row r="17" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="52" t="s">
-        <v>92</v>
-      </c>
-      <c r="B17" s="29" t="s">
+      <c r="A17" s="57" t="s">
+        <v>95</v>
+      </c>
+      <c r="B17" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="43"/>
-      <c r="D17" s="44"/>
-      <c r="E17" s="45">
-        <v>41895</v>
-      </c>
-      <c r="F17" s="43"/>
-      <c r="G17" s="48"/>
+      <c r="C17" s="53"/>
+      <c r="D17" s="54"/>
+      <c r="E17" s="55">
+        <v>38247</v>
+      </c>
+      <c r="F17" s="53"/>
+      <c r="G17" s="56"/>
     </row>
     <row r="18" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="52" t="s">
-        <v>93</v>
+      <c r="A18" s="57" t="s">
+        <v>94</v>
       </c>
       <c r="B18" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="43"/>
-      <c r="D18" s="44"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="43"/>
-      <c r="G18" s="48"/>
+      <c r="C18" s="53"/>
+      <c r="D18" s="54"/>
+      <c r="E18" s="55"/>
+      <c r="F18" s="53"/>
+      <c r="G18" s="56"/>
     </row>
     <row r="19" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A19" s="52" t="s">
-        <v>95</v>
-      </c>
-      <c r="B19" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="43"/>
-      <c r="D19" s="44"/>
-      <c r="E19" s="45"/>
-      <c r="F19" s="43"/>
-      <c r="G19" s="48"/>
+      <c r="A19" s="51" t="s">
+        <v>96</v>
+      </c>
+      <c r="B19" s="60"/>
+      <c r="C19" s="53"/>
+      <c r="D19" s="54"/>
+      <c r="E19" s="55"/>
+      <c r="F19" s="53"/>
+      <c r="G19" s="56"/>
     </row>
     <row r="20" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A20" s="47" t="s">
-        <v>67</v>
-      </c>
-      <c r="B20" s="42"/>
+      <c r="A20" s="52" t="s">
+        <v>97</v>
+      </c>
+      <c r="B20" s="29" t="s">
+        <v>16</v>
+      </c>
       <c r="C20" s="43"/>
       <c r="D20" s="44"/>
       <c r="E20" s="45"/>
       <c r="F20" s="43"/>
       <c r="G20" s="48"/>
     </row>
-    <row r="21" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="49" t="s">
-        <v>62</v>
+    <row r="21" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A21" s="52" t="s">
+        <v>98</v>
       </c>
       <c r="B21" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="C21" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="D21" s="32"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="31"/>
-    </row>
-    <row r="22" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="50" t="s">
-        <v>63</v>
+        <v>10</v>
+      </c>
+      <c r="C21" s="43"/>
+      <c r="D21" s="44"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="43"/>
+      <c r="G21" s="48"/>
+    </row>
+    <row r="22" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A22" s="52" t="s">
+        <v>100</v>
       </c>
       <c r="B22" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="C22" s="38"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="40"/>
-      <c r="F22" s="38"/>
-      <c r="G22" s="41"/>
-    </row>
-    <row r="23" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="52" t="s">
-        <v>75</v>
-      </c>
-      <c r="B23" s="29" t="s">
-        <v>16</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="C22" s="43"/>
+      <c r="D22" s="44"/>
+      <c r="E22" s="45"/>
+      <c r="F22" s="43"/>
+      <c r="G22" s="48"/>
+    </row>
+    <row r="23" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A23" s="47" t="s">
+        <v>67</v>
+      </c>
+      <c r="B23" s="42"/>
       <c r="C23" s="43"/>
       <c r="D23" s="44"/>
       <c r="E23" s="45"/>
       <c r="F23" s="43"/>
-      <c r="G23" s="46"/>
+      <c r="G23" s="48"/>
     </row>
     <row r="24" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="50" t="s">
-        <v>59</v>
+      <c r="A24" s="49" t="s">
+        <v>62</v>
       </c>
       <c r="B24" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="C24" s="38"/>
-      <c r="D24" s="39"/>
-      <c r="E24" s="40"/>
-      <c r="F24" s="38"/>
-      <c r="G24" s="41"/>
+      <c r="C24" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="32"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="31"/>
     </row>
     <row r="25" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="50" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B25" s="29" t="s">
         <v>16</v>
@@ -1993,101 +2032,99 @@
       <c r="G25" s="41"/>
     </row>
     <row r="26" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="50" t="s">
-        <v>61</v>
+      <c r="A26" s="52" t="s">
+        <v>75</v>
       </c>
       <c r="B26" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="C26" s="38"/>
-      <c r="D26" s="39"/>
-      <c r="E26" s="40"/>
-      <c r="F26" s="38"/>
-      <c r="G26" s="41"/>
+      <c r="C26" s="43"/>
+      <c r="D26" s="44"/>
+      <c r="E26" s="45"/>
+      <c r="F26" s="43"/>
+      <c r="G26" s="46"/>
     </row>
     <row r="27" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="49" t="s">
-        <v>65</v>
+      <c r="A27" s="50" t="s">
+        <v>59</v>
       </c>
       <c r="B27" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="C27" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="D27" s="32"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="30"/>
-      <c r="G27" s="31"/>
+      <c r="C27" s="38"/>
+      <c r="D27" s="39"/>
+      <c r="E27" s="40"/>
+      <c r="F27" s="38"/>
+      <c r="G27" s="41"/>
     </row>
     <row r="28" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="51" t="s">
-        <v>64</v>
-      </c>
-      <c r="B28" s="29"/>
-      <c r="C28" s="43"/>
-      <c r="D28" s="44"/>
-      <c r="E28" s="45"/>
-      <c r="F28" s="43"/>
-      <c r="G28" s="46"/>
+      <c r="A28" s="50" t="s">
+        <v>60</v>
+      </c>
+      <c r="B28" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" s="38"/>
+      <c r="D28" s="39"/>
+      <c r="E28" s="40"/>
+      <c r="F28" s="38"/>
+      <c r="G28" s="41"/>
     </row>
     <row r="29" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="50" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="B29" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="43"/>
-      <c r="D29" s="44"/>
-      <c r="E29" s="45"/>
-      <c r="F29" s="43"/>
-      <c r="G29" s="46"/>
+      <c r="C29" s="38"/>
+      <c r="D29" s="39"/>
+      <c r="E29" s="40"/>
+      <c r="F29" s="38"/>
+      <c r="G29" s="59"/>
     </row>
     <row r="30" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="52" t="s">
-        <v>77</v>
+      <c r="A30" s="49" t="s">
+        <v>65</v>
       </c>
       <c r="B30" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="C30" s="43"/>
-      <c r="D30" s="44"/>
-      <c r="E30" s="45"/>
-      <c r="F30" s="43"/>
-      <c r="G30" s="46"/>
-    </row>
-    <row r="31" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A31" s="52" t="s">
-        <v>78</v>
-      </c>
-      <c r="B31" s="29" t="s">
-        <v>16</v>
-      </c>
+      <c r="C30" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" s="32"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="31"/>
+    </row>
+    <row r="31" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="51" t="s">
+        <v>64</v>
+      </c>
+      <c r="B31" s="29"/>
       <c r="C31" s="43"/>
       <c r="D31" s="44"/>
       <c r="E31" s="45"/>
       <c r="F31" s="43"/>
       <c r="G31" s="46"/>
     </row>
-    <row r="32" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A32" s="52" t="s">
-        <v>79</v>
+    <row r="32" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="50" t="s">
+        <v>76</v>
       </c>
       <c r="B32" s="29" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C32" s="43"/>
       <c r="D32" s="44"/>
-      <c r="E32" s="45">
-        <v>41895</v>
-      </c>
+      <c r="E32" s="45"/>
       <c r="F32" s="43"/>
       <c r="G32" s="46"/>
     </row>
-    <row r="33" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="52" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B33" s="29" t="s">
         <v>16</v>
@@ -2098,9 +2135,9 @@
       <c r="F33" s="43"/>
       <c r="G33" s="46"/>
     </row>
-    <row r="34" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A34" s="52" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B34" s="29" t="s">
         <v>16</v>
@@ -2111,22 +2148,24 @@
       <c r="F34" s="43"/>
       <c r="G34" s="46"/>
     </row>
-    <row r="35" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="50" t="s">
-        <v>59</v>
+    <row r="35" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A35" s="52" t="s">
+        <v>79</v>
       </c>
       <c r="B35" s="29" t="s">
         <v>16</v>
       </c>
       <c r="C35" s="43"/>
       <c r="D35" s="44"/>
-      <c r="E35" s="45"/>
+      <c r="E35" s="45">
+        <v>41895</v>
+      </c>
       <c r="F35" s="43"/>
       <c r="G35" s="46"/>
     </row>
-    <row r="36" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A36" s="52" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B36" s="29" t="s">
         <v>16</v>
@@ -2137,9 +2176,9 @@
       <c r="F36" s="43"/>
       <c r="G36" s="46"/>
     </row>
-    <row r="37" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="50" t="s">
-        <v>60</v>
+    <row r="37" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A37" s="52" t="s">
+        <v>82</v>
       </c>
       <c r="B37" s="29" t="s">
         <v>16</v>
@@ -2152,7 +2191,7 @@
     </row>
     <row r="38" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="50" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B38" s="29" t="s">
         <v>16</v>
@@ -2164,11 +2203,11 @@
       <c r="G38" s="46"/>
     </row>
     <row r="39" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="51" t="s">
-        <v>69</v>
+      <c r="A39" s="52" t="s">
+        <v>80</v>
       </c>
       <c r="B39" s="29" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C39" s="43"/>
       <c r="D39" s="44"/>
@@ -2177,11 +2216,11 @@
       <c r="G39" s="46"/>
     </row>
     <row r="40" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="51" t="s">
-        <v>84</v>
+      <c r="A40" s="50" t="s">
+        <v>60</v>
       </c>
       <c r="B40" s="29" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C40" s="43"/>
       <c r="D40" s="44"/>
@@ -2190,10 +2229,12 @@
       <c r="G40" s="46"/>
     </row>
     <row r="41" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="47" t="s">
-        <v>70</v>
-      </c>
-      <c r="B41" s="29"/>
+      <c r="A41" s="50" t="s">
+        <v>61</v>
+      </c>
+      <c r="B41" s="29" t="s">
+        <v>16</v>
+      </c>
       <c r="C41" s="43"/>
       <c r="D41" s="44"/>
       <c r="E41" s="45"/>
@@ -2202,9 +2243,11 @@
     </row>
     <row r="42" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="51" t="s">
-        <v>62</v>
-      </c>
-      <c r="B42" s="29"/>
+        <v>69</v>
+      </c>
+      <c r="B42" s="29" t="s">
+        <v>10</v>
+      </c>
       <c r="C42" s="43"/>
       <c r="D42" s="44"/>
       <c r="E42" s="45"/>
@@ -2212,10 +2255,12 @@
       <c r="G42" s="46"/>
     </row>
     <row r="43" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="52" t="s">
-        <v>71</v>
-      </c>
-      <c r="B43" s="29"/>
+      <c r="A43" s="51" t="s">
+        <v>84</v>
+      </c>
+      <c r="B43" s="29" t="s">
+        <v>10</v>
+      </c>
       <c r="C43" s="43"/>
       <c r="D43" s="44"/>
       <c r="E43" s="45"/>
@@ -2223,8 +2268,8 @@
       <c r="G43" s="46"/>
     </row>
     <row r="44" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="52" t="s">
-        <v>72</v>
+      <c r="A44" s="47" t="s">
+        <v>70</v>
       </c>
       <c r="B44" s="29"/>
       <c r="C44" s="43"/>
@@ -2234,8 +2279,8 @@
       <c r="G44" s="46"/>
     </row>
     <row r="45" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="52" t="s">
-        <v>73</v>
+      <c r="A45" s="51" t="s">
+        <v>62</v>
       </c>
       <c r="B45" s="29"/>
       <c r="C45" s="43"/>
@@ -2246,7 +2291,7 @@
     </row>
     <row r="46" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="52" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B46" s="29"/>
       <c r="C46" s="43"/>
@@ -2256,8 +2301,8 @@
       <c r="G46" s="46"/>
     </row>
     <row r="47" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="51" t="s">
-        <v>65</v>
+      <c r="A47" s="52" t="s">
+        <v>72</v>
       </c>
       <c r="B47" s="29"/>
       <c r="C47" s="43"/>
@@ -2267,8 +2312,8 @@
       <c r="G47" s="46"/>
     </row>
     <row r="48" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="51" t="s">
-        <v>64</v>
+      <c r="A48" s="52" t="s">
+        <v>73</v>
       </c>
       <c r="B48" s="29"/>
       <c r="C48" s="43"/>
@@ -2277,9 +2322,9 @@
       <c r="F48" s="43"/>
       <c r="G48" s="46"/>
     </row>
-    <row r="49" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="52" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B49" s="29"/>
       <c r="C49" s="43"/>
@@ -2288,9 +2333,9 @@
       <c r="F49" s="43"/>
       <c r="G49" s="46"/>
     </row>
-    <row r="50" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A50" s="52" t="s">
-        <v>72</v>
+    <row r="50" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="51" t="s">
+        <v>65</v>
       </c>
       <c r="B50" s="29"/>
       <c r="C50" s="43"/>
@@ -2299,41 +2344,43 @@
       <c r="F50" s="43"/>
       <c r="G50" s="46"/>
     </row>
-    <row r="51" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A51" s="52" t="s">
-        <v>73</v>
+    <row r="51" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="51" t="s">
+        <v>64</v>
       </c>
       <c r="B51" s="29"/>
-      <c r="C51" s="30"/>
-      <c r="D51" s="32"/>
-      <c r="E51" s="3"/>
-      <c r="F51" s="30"/>
-      <c r="G51" s="31"/>
+      <c r="C51" s="43"/>
+      <c r="D51" s="44"/>
+      <c r="E51" s="45"/>
+      <c r="F51" s="43"/>
+      <c r="G51" s="46"/>
     </row>
     <row r="52" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A52" s="52" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B52" s="29"/>
-      <c r="C52" s="30"/>
-      <c r="D52" s="32"/>
-      <c r="E52" s="3"/>
-      <c r="F52" s="30"/>
-      <c r="G52" s="31"/>
+      <c r="C52" s="43"/>
+      <c r="D52" s="44"/>
+      <c r="E52" s="45"/>
+      <c r="F52" s="43"/>
+      <c r="G52" s="46"/>
     </row>
     <row r="53" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A53" s="49" t="s">
-        <v>69</v>
+      <c r="A53" s="52" t="s">
+        <v>72</v>
       </c>
       <c r="B53" s="29"/>
-      <c r="C53" s="30"/>
-      <c r="D53" s="32"/>
-      <c r="E53" s="3"/>
-      <c r="F53" s="30"/>
-      <c r="G53" s="31"/>
-    </row>
-    <row r="54" spans="1:7" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="28"/>
+      <c r="C53" s="43"/>
+      <c r="D53" s="44"/>
+      <c r="E53" s="45"/>
+      <c r="F53" s="43"/>
+      <c r="G53" s="46"/>
+    </row>
+    <row r="54" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A54" s="52" t="s">
+        <v>73</v>
+      </c>
       <c r="B54" s="29"/>
       <c r="C54" s="30"/>
       <c r="D54" s="32"/>
@@ -2341,8 +2388,10 @@
       <c r="F54" s="30"/>
       <c r="G54" s="31"/>
     </row>
-    <row r="55" spans="1:7" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="28"/>
+    <row r="55" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A55" s="52" t="s">
+        <v>74</v>
+      </c>
       <c r="B55" s="29"/>
       <c r="C55" s="30"/>
       <c r="D55" s="32"/>
@@ -2350,8 +2399,10 @@
       <c r="F55" s="30"/>
       <c r="G55" s="31"/>
     </row>
-    <row r="56" spans="1:7" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="28"/>
+    <row r="56" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A56" s="49" t="s">
+        <v>69</v>
+      </c>
       <c r="B56" s="29"/>
       <c r="C56" s="30"/>
       <c r="D56" s="32"/>
@@ -2449,9 +2500,33 @@
       <c r="F66" s="30"/>
       <c r="G66" s="31"/>
     </row>
-    <row r="67" spans="1:7" ht="26.1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="68" spans="1:7" ht="26.1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="69" spans="1:7" ht="26.1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="67" spans="1:7" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="28"/>
+      <c r="B67" s="29"/>
+      <c r="C67" s="30"/>
+      <c r="D67" s="32"/>
+      <c r="E67" s="3"/>
+      <c r="F67" s="30"/>
+      <c r="G67" s="31"/>
+    </row>
+    <row r="68" spans="1:7" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="28"/>
+      <c r="B68" s="29"/>
+      <c r="C68" s="30"/>
+      <c r="D68" s="32"/>
+      <c r="E68" s="3"/>
+      <c r="F68" s="30"/>
+      <c r="G68" s="31"/>
+    </row>
+    <row r="69" spans="1:7" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="28"/>
+      <c r="B69" s="29"/>
+      <c r="C69" s="30"/>
+      <c r="D69" s="32"/>
+      <c r="E69" s="3"/>
+      <c r="F69" s="30"/>
+      <c r="G69" s="31"/>
+    </row>
     <row r="70" spans="1:7" ht="26.1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="71" spans="1:7" ht="26.1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="72" spans="1:7" ht="26.1" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2573,29 +2648,32 @@
     <row r="188" ht="26.1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="189" ht="26.1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="190" ht="26.1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="191" ht="26.1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="192" ht="26.1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="193" ht="26.1" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="C5:C66">
-    <cfRule type="cellIs" dxfId="4" priority="6" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="C5:C69">
+    <cfRule type="cellIs" dxfId="3" priority="6" stopIfTrue="1" operator="equal">
       <formula>"high"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="7" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="7" stopIfTrue="1" operator="equal">
       <formula>"low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E5:E66">
-    <cfRule type="cellIs" dxfId="2" priority="8" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="E5:E69">
+    <cfRule type="cellIs" dxfId="1" priority="8" stopIfTrue="1" operator="lessThan">
       <formula>TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5:B66">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5:B69">
       <formula1>status</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C66">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C69">
       <formula1>priority</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D66">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D69">
       <formula1>pick</formula1>
     </dataValidation>
   </dataValidations>
@@ -2616,7 +2694,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="22" id="{533540A5-6A84-4573-A269-D478FEABF703}">
+          <x14:cfRule type="iconSet" priority="43" id="{533540A5-6A84-4573-A269-D478FEABF703}">
             <x14:iconSet iconSet="3Symbols" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -2632,7 +2710,7 @@
               <x14:cfIcon iconSet="3TrafficLights1" iconId="2"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>E4:E66</xm:sqref>
+          <xm:sqref>E4:E69</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -2676,11 +2754,11 @@
       <c r="C2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="53" t="s">
+      <c r="E2" s="58" t="s">
         <v>51</v>
       </c>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
     </row>
     <row r="3" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
@@ -2692,9 +2770,9 @@
       <c r="C3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
     </row>
     <row r="4" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
@@ -2706,9 +2784,9 @@
       <c r="C4" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="58"/>
     </row>
     <row r="5" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
@@ -2720,9 +2798,9 @@
       <c r="C5" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
-      <c r="G5" s="53"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="58"/>
+      <c r="G5" s="58"/>
     </row>
     <row r="6" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
@@ -2732,9 +2810,9 @@
       <c r="C6" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="53"/>
-      <c r="F6" s="53"/>
-      <c r="G6" s="53"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="58"/>
+      <c r="G6" s="58"/>
     </row>
     <row r="7" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">

--- a/trunk/Project Planning/to-do-list.xlsx
+++ b/trunk/Project Planning/to-do-list.xlsx
@@ -17,7 +17,7 @@
     <sheet name="Help" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ToDoList!$A$4:$G$69</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ToDoList!$A$4:$G$74</definedName>
     <definedName name="pick">OFFSET(Lists!$C$1,1,0,MATCH(REPT("z",255),Lists!$C:$C),1)</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">ToDoList!$A:$G</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">ToDoList!$4:$4</definedName>
@@ -143,7 +143,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="99">
   <si>
     <t>To Do List</t>
   </si>
@@ -433,19 +433,13 @@
     <t>Apply layout</t>
   </si>
   <si>
-    <t>Build Control</t>
-  </si>
-  <si>
-    <t>Date time picker</t>
-  </si>
-  <si>
-    <t>Auto complete</t>
-  </si>
-  <si>
     <t>Quy Nhon side will in charge</t>
   </si>
   <si>
-    <t>Message box</t>
+    <t>Convert to DevExpress</t>
+  </si>
+  <si>
+    <t>Create user</t>
   </si>
 </sst>
 </file>
@@ -455,7 +449,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
   </numFmts>
-  <fonts count="29" x14ac:knownFonts="1">
+  <fonts count="30" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Arial"/>
@@ -639,6 +633,13 @@
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -740,7 +741,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -899,33 +900,36 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="26" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="19">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
+  <dxfs count="18">
     <dxf>
       <font>
         <b/>
@@ -1387,27 +1391,27 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A4:G69" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
-  <autoFilter ref="A4:G69"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A4:G74" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
+  <autoFilter ref="A4:G74"/>
   <tableColumns count="7">
-    <tableColumn id="6" name="Project / Task" dataDxfId="16"/>
-    <tableColumn id="1" name="Status" dataDxfId="15"/>
-    <tableColumn id="2" name="Priority" dataDxfId="14"/>
-    <tableColumn id="3" name="PICK" dataDxfId="13"/>
-    <tableColumn id="4" name="Due Date" dataDxfId="12"/>
-    <tableColumn id="5" name="Owner" dataDxfId="11"/>
-    <tableColumn id="7" name="Notes" dataDxfId="10"/>
+    <tableColumn id="6" name="Project / Task" dataDxfId="15"/>
+    <tableColumn id="1" name="Status" dataDxfId="14"/>
+    <tableColumn id="2" name="Priority" dataDxfId="13"/>
+    <tableColumn id="3" name="PICK" dataDxfId="12"/>
+    <tableColumn id="4" name="Due Date" dataDxfId="11"/>
+    <tableColumn id="5" name="Owner" dataDxfId="10"/>
+    <tableColumn id="7" name="Notes" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:C23" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8" tableBorderDxfId="7" dataCellStyle="Normal">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:C23" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7" tableBorderDxfId="6" dataCellStyle="Normal">
   <tableColumns count="3">
-    <tableColumn id="1" name="Status" dataDxfId="6" dataCellStyle="Normal"/>
-    <tableColumn id="2" name="Priority" dataDxfId="5" dataCellStyle="Normal"/>
-    <tableColumn id="3" name="PICK" dataDxfId="4" dataCellStyle="Normal"/>
+    <tableColumn id="1" name="Status" dataDxfId="5" dataCellStyle="Normal"/>
+    <tableColumn id="2" name="Priority" dataDxfId="4" dataCellStyle="Normal"/>
+    <tableColumn id="3" name="PICK" dataDxfId="3" dataCellStyle="Normal"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1703,10 +1707,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I193"/>
+  <dimension ref="A1:I198"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1809,7 +1813,7 @@
       <c r="E8" s="45"/>
       <c r="F8" s="43"/>
       <c r="G8" s="48" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -1918,7 +1922,7 @@
       <c r="A17" s="57" t="s">
         <v>95</v>
       </c>
-      <c r="B17" s="61" t="s">
+      <c r="B17" s="59" t="s">
         <v>10</v>
       </c>
       <c r="C17" s="53"/>
@@ -1943,84 +1947,86 @@
       <c r="G18" s="56"/>
     </row>
     <row r="19" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A19" s="51" t="s">
-        <v>96</v>
-      </c>
-      <c r="B19" s="60"/>
-      <c r="C19" s="53"/>
-      <c r="D19" s="54"/>
-      <c r="E19" s="55"/>
-      <c r="F19" s="53"/>
-      <c r="G19" s="56"/>
-    </row>
-    <row r="20" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A20" s="52" t="s">
-        <v>97</v>
+      <c r="A19" s="47" t="s">
+        <v>67</v>
+      </c>
+      <c r="B19" s="42"/>
+      <c r="C19" s="43"/>
+      <c r="D19" s="44"/>
+      <c r="E19" s="45"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="48"/>
+    </row>
+    <row r="20" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="49" t="s">
+        <v>62</v>
       </c>
       <c r="B20" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="43"/>
-      <c r="D20" s="44"/>
-      <c r="E20" s="45"/>
-      <c r="F20" s="43"/>
-      <c r="G20" s="48"/>
-    </row>
-    <row r="21" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A21" s="52" t="s">
-        <v>98</v>
+      <c r="C20" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="32"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="31"/>
+    </row>
+    <row r="21" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="50" t="s">
+        <v>63</v>
       </c>
       <c r="B21" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="C21" s="43"/>
-      <c r="D21" s="44"/>
-      <c r="E21" s="45"/>
-      <c r="F21" s="43"/>
-      <c r="G21" s="48"/>
-    </row>
-    <row r="22" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="C21" s="38"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="41"/>
+    </row>
+    <row r="22" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="52" t="s">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="B22" s="29" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C22" s="43"/>
       <c r="D22" s="44"/>
       <c r="E22" s="45"/>
       <c r="F22" s="43"/>
-      <c r="G22" s="48"/>
-    </row>
-    <row r="23" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A23" s="47" t="s">
-        <v>67</v>
-      </c>
-      <c r="B23" s="42"/>
-      <c r="C23" s="43"/>
-      <c r="D23" s="44"/>
-      <c r="E23" s="45"/>
-      <c r="F23" s="43"/>
-      <c r="G23" s="48"/>
+      <c r="G22" s="46"/>
+    </row>
+    <row r="23" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="50" t="s">
+        <v>59</v>
+      </c>
+      <c r="B23" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" s="38"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="38"/>
+      <c r="G23" s="41"/>
     </row>
     <row r="24" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="49" t="s">
-        <v>62</v>
+      <c r="A24" s="50" t="s">
+        <v>60</v>
       </c>
       <c r="B24" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="C24" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="D24" s="32"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="30"/>
-      <c r="G24" s="31"/>
+      <c r="C24" s="38"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="40"/>
+      <c r="F24" s="38"/>
+      <c r="G24" s="41"/>
     </row>
     <row r="25" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="50" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B25" s="29" t="s">
         <v>16</v>
@@ -2029,89 +2035,91 @@
       <c r="D25" s="39"/>
       <c r="E25" s="40"/>
       <c r="F25" s="38"/>
-      <c r="G25" s="41"/>
+      <c r="G25" s="58"/>
     </row>
     <row r="26" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="52" t="s">
-        <v>75</v>
+      <c r="A26" s="49" t="s">
+        <v>65</v>
       </c>
       <c r="B26" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="C26" s="43"/>
-      <c r="D26" s="44"/>
-      <c r="E26" s="45"/>
-      <c r="F26" s="43"/>
-      <c r="G26" s="46"/>
+      <c r="C26" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="32"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="31"/>
     </row>
     <row r="27" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="50" t="s">
-        <v>59</v>
-      </c>
-      <c r="B27" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="C27" s="38"/>
-      <c r="D27" s="39"/>
-      <c r="E27" s="40"/>
-      <c r="F27" s="38"/>
-      <c r="G27" s="41"/>
+      <c r="A27" s="51" t="s">
+        <v>64</v>
+      </c>
+      <c r="B27" s="29"/>
+      <c r="C27" s="43"/>
+      <c r="D27" s="44"/>
+      <c r="E27" s="45"/>
+      <c r="F27" s="43"/>
+      <c r="G27" s="46"/>
     </row>
     <row r="28" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="50" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="B28" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="C28" s="38"/>
-      <c r="D28" s="39"/>
-      <c r="E28" s="40"/>
-      <c r="F28" s="38"/>
-      <c r="G28" s="41"/>
+      <c r="C28" s="43"/>
+      <c r="D28" s="44"/>
+      <c r="E28" s="45"/>
+      <c r="F28" s="43"/>
+      <c r="G28" s="46"/>
     </row>
     <row r="29" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="50" t="s">
-        <v>61</v>
+      <c r="A29" s="52" t="s">
+        <v>77</v>
       </c>
       <c r="B29" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="38"/>
-      <c r="D29" s="39"/>
-      <c r="E29" s="40"/>
-      <c r="F29" s="38"/>
-      <c r="G29" s="59"/>
-    </row>
-    <row r="30" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="49" t="s">
-        <v>65</v>
+      <c r="C29" s="43"/>
+      <c r="D29" s="44"/>
+      <c r="E29" s="45"/>
+      <c r="F29" s="43"/>
+      <c r="G29" s="46"/>
+    </row>
+    <row r="30" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A30" s="52" t="s">
+        <v>78</v>
       </c>
       <c r="B30" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="C30" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="D30" s="32"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="30"/>
-      <c r="G30" s="31"/>
-    </row>
-    <row r="31" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="51" t="s">
-        <v>64</v>
-      </c>
-      <c r="B31" s="29"/>
+      <c r="C30" s="43"/>
+      <c r="D30" s="44"/>
+      <c r="E30" s="45"/>
+      <c r="F30" s="43"/>
+      <c r="G30" s="46"/>
+    </row>
+    <row r="31" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A31" s="52" t="s">
+        <v>79</v>
+      </c>
+      <c r="B31" s="29" t="s">
+        <v>16</v>
+      </c>
       <c r="C31" s="43"/>
       <c r="D31" s="44"/>
-      <c r="E31" s="45"/>
+      <c r="E31" s="45">
+        <v>41895</v>
+      </c>
       <c r="F31" s="43"/>
       <c r="G31" s="46"/>
     </row>
-    <row r="32" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="50" t="s">
-        <v>76</v>
+    <row r="32" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A32" s="52" t="s">
+        <v>81</v>
       </c>
       <c r="B32" s="29" t="s">
         <v>16</v>
@@ -2122,9 +2130,9 @@
       <c r="F32" s="43"/>
       <c r="G32" s="46"/>
     </row>
-    <row r="33" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A33" s="52" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B33" s="29" t="s">
         <v>16</v>
@@ -2135,9 +2143,9 @@
       <c r="F33" s="43"/>
       <c r="G33" s="46"/>
     </row>
-    <row r="34" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A34" s="52" t="s">
-        <v>78</v>
+    <row r="34" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="50" t="s">
+        <v>59</v>
       </c>
       <c r="B34" s="29" t="s">
         <v>16</v>
@@ -2148,24 +2156,22 @@
       <c r="F34" s="43"/>
       <c r="G34" s="46"/>
     </row>
-    <row r="35" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="52" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B35" s="29" t="s">
         <v>16</v>
       </c>
       <c r="C35" s="43"/>
       <c r="D35" s="44"/>
-      <c r="E35" s="45">
-        <v>41895</v>
-      </c>
+      <c r="E35" s="45"/>
       <c r="F35" s="43"/>
       <c r="G35" s="46"/>
     </row>
-    <row r="36" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A36" s="52" t="s">
-        <v>81</v>
+    <row r="36" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="50" t="s">
+        <v>60</v>
       </c>
       <c r="B36" s="29" t="s">
         <v>16</v>
@@ -2176,9 +2182,9 @@
       <c r="F36" s="43"/>
       <c r="G36" s="46"/>
     </row>
-    <row r="37" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A37" s="52" t="s">
-        <v>82</v>
+    <row r="37" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="50" t="s">
+        <v>61</v>
       </c>
       <c r="B37" s="29" t="s">
         <v>16</v>
@@ -2189,25 +2195,25 @@
       <c r="F37" s="43"/>
       <c r="G37" s="46"/>
     </row>
-    <row r="38" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="50" t="s">
-        <v>59</v>
+    <row r="38" spans="1:7" s="65" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="51" t="s">
+        <v>97</v>
       </c>
       <c r="B38" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="C38" s="43"/>
-      <c r="D38" s="44"/>
-      <c r="E38" s="45"/>
-      <c r="F38" s="43"/>
-      <c r="G38" s="46"/>
-    </row>
-    <row r="39" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="C38" s="61"/>
+      <c r="D38" s="62"/>
+      <c r="E38" s="63"/>
+      <c r="F38" s="61"/>
+      <c r="G38" s="64"/>
+    </row>
+    <row r="39" spans="1:7" s="65" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="52" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B39" s="29" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C39" s="43"/>
       <c r="D39" s="44"/>
@@ -2215,12 +2221,12 @@
       <c r="F39" s="43"/>
       <c r="G39" s="46"/>
     </row>
-    <row r="40" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="50" t="s">
-        <v>60</v>
+    <row r="40" spans="1:7" s="65" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="52" t="s">
+        <v>77</v>
       </c>
       <c r="B40" s="29" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C40" s="43"/>
       <c r="D40" s="44"/>
@@ -2228,12 +2234,12 @@
       <c r="F40" s="43"/>
       <c r="G40" s="46"/>
     </row>
-    <row r="41" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="50" t="s">
-        <v>61</v>
+    <row r="41" spans="1:7" s="65" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A41" s="52" t="s">
+        <v>78</v>
       </c>
       <c r="B41" s="29" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C41" s="43"/>
       <c r="D41" s="44"/>
@@ -2241,9 +2247,9 @@
       <c r="F41" s="43"/>
       <c r="G41" s="46"/>
     </row>
-    <row r="42" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="51" t="s">
-        <v>69</v>
+    <row r="42" spans="1:7" s="65" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="52" t="s">
+        <v>81</v>
       </c>
       <c r="B42" s="29" t="s">
         <v>10</v>
@@ -2254,9 +2260,9 @@
       <c r="F42" s="43"/>
       <c r="G42" s="46"/>
     </row>
-    <row r="43" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="51" t="s">
-        <v>84</v>
+    <row r="43" spans="1:7" s="65" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="52" t="s">
+        <v>82</v>
       </c>
       <c r="B43" s="29" t="s">
         <v>10</v>
@@ -2267,33 +2273,37 @@
       <c r="F43" s="43"/>
       <c r="G43" s="46"/>
     </row>
-    <row r="44" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="47" t="s">
-        <v>70</v>
-      </c>
-      <c r="B44" s="29"/>
+    <row r="44" spans="1:7" s="65" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="52" t="s">
+        <v>98</v>
+      </c>
+      <c r="B44" s="29" t="s">
+        <v>10</v>
+      </c>
       <c r="C44" s="43"/>
       <c r="D44" s="44"/>
       <c r="E44" s="45"/>
       <c r="F44" s="43"/>
       <c r="G44" s="46"/>
     </row>
-    <row r="45" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="51" t="s">
-        <v>62</v>
-      </c>
-      <c r="B45" s="29"/>
+    <row r="45" spans="1:7" s="65" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="52" t="s">
+        <v>80</v>
+      </c>
+      <c r="B45" s="29" t="s">
+        <v>10</v>
+      </c>
       <c r="C45" s="43"/>
       <c r="D45" s="44"/>
       <c r="E45" s="45"/>
       <c r="F45" s="43"/>
       <c r="G45" s="46"/>
     </row>
-    <row r="46" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" s="65" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="52" t="s">
-        <v>71</v>
-      </c>
-      <c r="B46" s="29"/>
+        <v>61</v>
+      </c>
+      <c r="B46" s="42"/>
       <c r="C46" s="43"/>
       <c r="D46" s="44"/>
       <c r="E46" s="45"/>
@@ -2301,10 +2311,12 @@
       <c r="G46" s="46"/>
     </row>
     <row r="47" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="52" t="s">
-        <v>72</v>
-      </c>
-      <c r="B47" s="29"/>
+      <c r="A47" s="51" t="s">
+        <v>69</v>
+      </c>
+      <c r="B47" s="29" t="s">
+        <v>10</v>
+      </c>
       <c r="C47" s="43"/>
       <c r="D47" s="44"/>
       <c r="E47" s="45"/>
@@ -2312,10 +2324,12 @@
       <c r="G47" s="46"/>
     </row>
     <row r="48" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="52" t="s">
-        <v>73</v>
-      </c>
-      <c r="B48" s="29"/>
+      <c r="A48" s="51" t="s">
+        <v>84</v>
+      </c>
+      <c r="B48" s="29" t="s">
+        <v>10</v>
+      </c>
       <c r="C48" s="43"/>
       <c r="D48" s="44"/>
       <c r="E48" s="45"/>
@@ -2323,8 +2337,8 @@
       <c r="G48" s="46"/>
     </row>
     <row r="49" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="52" t="s">
-        <v>74</v>
+      <c r="A49" s="47" t="s">
+        <v>70</v>
       </c>
       <c r="B49" s="29"/>
       <c r="C49" s="43"/>
@@ -2335,7 +2349,7 @@
     </row>
     <row r="50" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="51" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B50" s="29"/>
       <c r="C50" s="43"/>
@@ -2345,8 +2359,8 @@
       <c r="G50" s="46"/>
     </row>
     <row r="51" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="51" t="s">
-        <v>64</v>
+      <c r="A51" s="52" t="s">
+        <v>71</v>
       </c>
       <c r="B51" s="29"/>
       <c r="C51" s="43"/>
@@ -2355,9 +2369,9 @@
       <c r="F51" s="43"/>
       <c r="G51" s="46"/>
     </row>
-    <row r="52" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="52" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B52" s="29"/>
       <c r="C52" s="43"/>
@@ -2366,9 +2380,9 @@
       <c r="F52" s="43"/>
       <c r="G52" s="46"/>
     </row>
-    <row r="53" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="52" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B53" s="29"/>
       <c r="C53" s="43"/>
@@ -2377,59 +2391,65 @@
       <c r="F53" s="43"/>
       <c r="G53" s="46"/>
     </row>
-    <row r="54" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="52" t="s">
+        <v>74</v>
+      </c>
+      <c r="B54" s="29"/>
+      <c r="C54" s="43"/>
+      <c r="D54" s="44"/>
+      <c r="E54" s="45"/>
+      <c r="F54" s="43"/>
+      <c r="G54" s="46"/>
+    </row>
+    <row r="55" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="51" t="s">
+        <v>65</v>
+      </c>
+      <c r="B55" s="29"/>
+      <c r="C55" s="43"/>
+      <c r="D55" s="44"/>
+      <c r="E55" s="45"/>
+      <c r="F55" s="43"/>
+      <c r="G55" s="46"/>
+    </row>
+    <row r="56" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="51" t="s">
+        <v>64</v>
+      </c>
+      <c r="B56" s="29"/>
+      <c r="C56" s="43"/>
+      <c r="D56" s="44"/>
+      <c r="E56" s="45"/>
+      <c r="F56" s="43"/>
+      <c r="G56" s="46"/>
+    </row>
+    <row r="57" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A57" s="52" t="s">
+        <v>71</v>
+      </c>
+      <c r="B57" s="29"/>
+      <c r="C57" s="43"/>
+      <c r="D57" s="44"/>
+      <c r="E57" s="45"/>
+      <c r="F57" s="43"/>
+      <c r="G57" s="46"/>
+    </row>
+    <row r="58" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A58" s="52" t="s">
+        <v>72</v>
+      </c>
+      <c r="B58" s="29"/>
+      <c r="C58" s="43"/>
+      <c r="D58" s="44"/>
+      <c r="E58" s="45"/>
+      <c r="F58" s="43"/>
+      <c r="G58" s="46"/>
+    </row>
+    <row r="59" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A59" s="52" t="s">
         <v>73</v>
       </c>
-      <c r="B54" s="29"/>
-      <c r="C54" s="30"/>
-      <c r="D54" s="32"/>
-      <c r="E54" s="3"/>
-      <c r="F54" s="30"/>
-      <c r="G54" s="31"/>
-    </row>
-    <row r="55" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A55" s="52" t="s">
-        <v>74</v>
-      </c>
-      <c r="B55" s="29"/>
-      <c r="C55" s="30"/>
-      <c r="D55" s="32"/>
-      <c r="E55" s="3"/>
-      <c r="F55" s="30"/>
-      <c r="G55" s="31"/>
-    </row>
-    <row r="56" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A56" s="49" t="s">
-        <v>69</v>
-      </c>
-      <c r="B56" s="29"/>
-      <c r="C56" s="30"/>
-      <c r="D56" s="32"/>
-      <c r="E56" s="3"/>
-      <c r="F56" s="30"/>
-      <c r="G56" s="31"/>
-    </row>
-    <row r="57" spans="1:7" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="28"/>
-      <c r="B57" s="29"/>
-      <c r="C57" s="30"/>
-      <c r="D57" s="32"/>
-      <c r="E57" s="3"/>
-      <c r="F57" s="30"/>
-      <c r="G57" s="31"/>
-    </row>
-    <row r="58" spans="1:7" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="28"/>
-      <c r="B58" s="29"/>
-      <c r="C58" s="30"/>
-      <c r="D58" s="32"/>
-      <c r="E58" s="3"/>
-      <c r="F58" s="30"/>
-      <c r="G58" s="31"/>
-    </row>
-    <row r="59" spans="1:7" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="28"/>
       <c r="B59" s="29"/>
       <c r="C59" s="30"/>
       <c r="D59" s="32"/>
@@ -2437,8 +2457,10 @@
       <c r="F59" s="30"/>
       <c r="G59" s="31"/>
     </row>
-    <row r="60" spans="1:7" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="28"/>
+    <row r="60" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A60" s="52" t="s">
+        <v>74</v>
+      </c>
       <c r="B60" s="29"/>
       <c r="C60" s="30"/>
       <c r="D60" s="32"/>
@@ -2446,8 +2468,10 @@
       <c r="F60" s="30"/>
       <c r="G60" s="31"/>
     </row>
-    <row r="61" spans="1:7" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="28"/>
+    <row r="61" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A61" s="49" t="s">
+        <v>69</v>
+      </c>
       <c r="B61" s="29"/>
       <c r="C61" s="30"/>
       <c r="D61" s="32"/>
@@ -2527,11 +2551,51 @@
       <c r="F69" s="30"/>
       <c r="G69" s="31"/>
     </row>
-    <row r="70" spans="1:7" ht="26.1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="71" spans="1:7" ht="26.1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="72" spans="1:7" ht="26.1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="73" spans="1:7" ht="26.1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="74" spans="1:7" ht="26.1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="70" spans="1:7" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="28"/>
+      <c r="B70" s="29"/>
+      <c r="C70" s="30"/>
+      <c r="D70" s="32"/>
+      <c r="E70" s="3"/>
+      <c r="F70" s="30"/>
+      <c r="G70" s="31"/>
+    </row>
+    <row r="71" spans="1:7" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="28"/>
+      <c r="B71" s="29"/>
+      <c r="C71" s="30"/>
+      <c r="D71" s="32"/>
+      <c r="E71" s="3"/>
+      <c r="F71" s="30"/>
+      <c r="G71" s="31"/>
+    </row>
+    <row r="72" spans="1:7" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="28"/>
+      <c r="B72" s="29"/>
+      <c r="C72" s="30"/>
+      <c r="D72" s="32"/>
+      <c r="E72" s="3"/>
+      <c r="F72" s="30"/>
+      <c r="G72" s="31"/>
+    </row>
+    <row r="73" spans="1:7" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="28"/>
+      <c r="B73" s="29"/>
+      <c r="C73" s="30"/>
+      <c r="D73" s="32"/>
+      <c r="E73" s="3"/>
+      <c r="F73" s="30"/>
+      <c r="G73" s="31"/>
+    </row>
+    <row r="74" spans="1:7" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="28"/>
+      <c r="B74" s="29"/>
+      <c r="C74" s="30"/>
+      <c r="D74" s="32"/>
+      <c r="E74" s="3"/>
+      <c r="F74" s="30"/>
+      <c r="G74" s="31"/>
+    </row>
     <row r="75" spans="1:7" ht="26.1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="76" spans="1:7" ht="26.1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="77" spans="1:7" ht="26.1" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2651,29 +2715,34 @@
     <row r="191" ht="26.1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="192" ht="26.1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="193" ht="26.1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="194" ht="26.1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="195" ht="26.1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="196" ht="26.1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="197" ht="26.1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="198" ht="26.1" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="C5:C69">
-    <cfRule type="cellIs" dxfId="3" priority="6" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="C5:C74">
+    <cfRule type="cellIs" dxfId="2" priority="6" stopIfTrue="1" operator="equal">
       <formula>"high"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="7" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="7" stopIfTrue="1" operator="equal">
       <formula>"low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E5:E69">
-    <cfRule type="cellIs" dxfId="1" priority="8" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="E5:E74">
+    <cfRule type="cellIs" dxfId="0" priority="8" stopIfTrue="1" operator="lessThan">
       <formula>TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5:B69">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5:B74">
       <formula1>status</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C69">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C74">
       <formula1>priority</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D69">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D74">
       <formula1>pick</formula1>
     </dataValidation>
   </dataValidations>
@@ -2694,7 +2763,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="43" id="{533540A5-6A84-4573-A269-D478FEABF703}">
+          <x14:cfRule type="iconSet" priority="50" id="{533540A5-6A84-4573-A269-D478FEABF703}">
             <x14:iconSet iconSet="3Symbols" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -2710,7 +2779,7 @@
               <x14:cfIcon iconSet="3TrafficLights1" iconId="2"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>E4:E69</xm:sqref>
+          <xm:sqref>E4:E74</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -2754,11 +2823,11 @@
       <c r="C2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="58" t="s">
+      <c r="E2" s="60" t="s">
         <v>51</v>
       </c>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
     </row>
     <row r="3" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
@@ -2770,9 +2839,9 @@
       <c r="C3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
     </row>
     <row r="4" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
@@ -2784,9 +2853,9 @@
       <c r="C4" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="58"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
     </row>
     <row r="5" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
@@ -2798,9 +2867,9 @@
       <c r="C5" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="58"/>
-      <c r="F5" s="58"/>
-      <c r="G5" s="58"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="60"/>
     </row>
     <row r="6" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
@@ -2810,9 +2879,9 @@
       <c r="C6" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="58"/>
-      <c r="F6" s="58"/>
-      <c r="G6" s="58"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="60"/>
     </row>
     <row r="7" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
